--- a/WS_tags/tag_3151_list.xlsx
+++ b/WS_tags/tag_3151_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A257"/>
+  <dimension ref="A1:A222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,1282 +387,1107 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>172</v>
+        <v>22881</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>194</v>
+        <v>28233</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>195</v>
+        <v>40253</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>337</v>
+        <v>42739</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>358</v>
+        <v>46951</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>380</v>
+        <v>57243</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>390</v>
+        <v>57964</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>419</v>
+        <v>58007</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>445</v>
+        <v>71430</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>446</v>
+        <v>71555</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>447</v>
+        <v>71958</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>453</v>
+        <v>73640</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>454</v>
+        <v>75656</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>465</v>
+        <v>77593</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>469</v>
+        <v>81090</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>487</v>
+        <v>89738</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>498</v>
+        <v>90505</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>506</v>
+        <v>90837</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>514</v>
+        <v>91207</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>541</v>
+        <v>91489</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>548</v>
+        <v>92163</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>571</v>
+        <v>92893</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>573</v>
+        <v>93564</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>596</v>
+        <v>93819</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>619</v>
+        <v>119317</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>621</v>
+        <v>119804</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>638</v>
+        <v>122769</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>672</v>
+        <v>126062</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>729</v>
+        <v>131836</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>757</v>
+        <v>134367</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>781</v>
+        <v>188901</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>803</v>
+        <v>202073</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>814</v>
+        <v>214858</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>844</v>
+        <v>216789</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>850</v>
+        <v>216994</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>892</v>
+        <v>223217</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>897</v>
+        <v>226226</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>914</v>
+        <v>227320</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>931</v>
+        <v>230914</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>935</v>
+        <v>233781</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>956</v>
+        <v>236055</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>973</v>
+        <v>236147</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>984</v>
+        <v>237270</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>1002</v>
+        <v>240041</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>1022</v>
+        <v>242539</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>1068</v>
+        <v>242560</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>1081</v>
+        <v>243021</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>1090</v>
+        <v>245143</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>1094</v>
+        <v>245557</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>1095</v>
+        <v>253288</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>1096</v>
+        <v>253379</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>1103</v>
+        <v>257303</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>1109</v>
+        <v>259339</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>1113</v>
+        <v>261962</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>1128</v>
+        <v>262378</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>1138</v>
+        <v>264870</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>1144</v>
+        <v>266658</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>1155</v>
+        <v>274079</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>1205</v>
+        <v>276269</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>1211</v>
+        <v>276981</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>1213</v>
+        <v>277088</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>1223</v>
+        <v>277544</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>1238</v>
+        <v>282390</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>1248</v>
+        <v>284270</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>1359</v>
+        <v>286265</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>1360</v>
+        <v>288078</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>1375</v>
+        <v>297758</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>1408</v>
+        <v>304014</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>1444</v>
+        <v>304879</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>1461</v>
+        <v>306704</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>1505</v>
+        <v>306808</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>1506</v>
+        <v>307011</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>1522</v>
+        <v>307031</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>1531</v>
+        <v>316867</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>1550</v>
+        <v>317463</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>1568</v>
+        <v>325285</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>1582</v>
+        <v>329676</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>1626</v>
+        <v>329843</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>1651</v>
+        <v>330186</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>1792</v>
+        <v>330721</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>1834</v>
+        <v>333242</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>1855</v>
+        <v>333327</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>1856</v>
+        <v>334823</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>1909</v>
+        <v>338125</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>1952</v>
+        <v>338207</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>2146</v>
+        <v>342849</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>2218</v>
+        <v>343261</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>2233</v>
+        <v>346457</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>2242</v>
+        <v>346884</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>2244</v>
+        <v>347315</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>2250</v>
+        <v>352359</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>2257</v>
+        <v>352433</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>2276</v>
+        <v>353032</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>2312</v>
+        <v>354313</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>2314</v>
+        <v>355640</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>2315</v>
+        <v>356730</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>2321</v>
+        <v>358134</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>2327</v>
+        <v>359057</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>2350</v>
+        <v>359220</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>2431</v>
+        <v>359594</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>2434</v>
+        <v>359765</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>2455</v>
+        <v>360665</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>2505</v>
+        <v>361824</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>2547</v>
+        <v>362086</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>2548</v>
+        <v>366642</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>2549</v>
+        <v>368265</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>2677</v>
+        <v>370264</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>2680</v>
+        <v>373957</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>2683</v>
+        <v>374628</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>2706</v>
+        <v>375230</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>2773</v>
+        <v>377884</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>2795</v>
+        <v>380456</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>2824</v>
+        <v>392065</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>2825</v>
+        <v>397605</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>2842</v>
+        <v>398605</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>2852</v>
+        <v>399334</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>2856</v>
+        <v>400649</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>2906</v>
+        <v>400883</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>2907</v>
+        <v>403030</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>2936</v>
+        <v>404164</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>3042</v>
+        <v>406049</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>3043</v>
+        <v>406087</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>3068</v>
+        <v>407083</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>3099</v>
+        <v>408198</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>3100</v>
+        <v>408433</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>3110</v>
+        <v>408560</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>3111</v>
+        <v>408597</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>3127</v>
+        <v>410358</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>3128</v>
+        <v>410414</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>3190</v>
+        <v>410710</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>3354</v>
+        <v>412414</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>3432</v>
+        <v>413236</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>3451</v>
+        <v>413239</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>3459</v>
+        <v>413524</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>3518</v>
+        <v>413709</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>3521</v>
+        <v>414652</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>3522</v>
+        <v>414756</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>3528</v>
+        <v>416748</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>3533</v>
+        <v>421421</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>3539</v>
+        <v>435070</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>3547</v>
+        <v>435491</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>3558</v>
+        <v>436065</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>3562</v>
+        <v>445922</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>3586</v>
+        <v>446833</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>3592</v>
+        <v>452541</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>3617</v>
+        <v>456023</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>3622</v>
+        <v>469137</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>3623</v>
+        <v>473106</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>3713</v>
+        <v>477095</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>3720</v>
+        <v>478331</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>3728</v>
+        <v>480663</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>3737</v>
+        <v>481925</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>3743</v>
+        <v>482049</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>3750</v>
+        <v>489946</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>3834</v>
+        <v>490691</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>3835</v>
+        <v>492411</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>3843</v>
+        <v>494566</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>4000</v>
+        <v>494771</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>4043</v>
+        <v>506325</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>4062</v>
+        <v>509425</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>4076</v>
+        <v>513453</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>4120</v>
+        <v>514930</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>4122</v>
+        <v>518872</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>4139</v>
+        <v>520730</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>4149</v>
+        <v>524022</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>4173</v>
+        <v>530702</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>4188</v>
+        <v>539161</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>4201</v>
+        <v>540495</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>4320</v>
+        <v>542012</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>4329</v>
+        <v>544985</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>4331</v>
+        <v>546211</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>4333</v>
+        <v>553946</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>4334</v>
+        <v>557888</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>4338</v>
+        <v>558758</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>4339</v>
+        <v>568285</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>4345</v>
+        <v>573222</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>4347</v>
+        <v>573350</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>4404</v>
+        <v>574730</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>4412</v>
+        <v>576373</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>4448</v>
+        <v>576465</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>4451</v>
+        <v>591293</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>4493</v>
+        <v>593209</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>4498</v>
+        <v>595719</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>4508</v>
+        <v>616896</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>4516</v>
+        <v>631058</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>4544</v>
+        <v>636178</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>4545</v>
+        <v>654136</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>4551</v>
+        <v>656889</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>4552</v>
+        <v>659128</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>4568</v>
+        <v>662855</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>4602</v>
+        <v>665254</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>4625</v>
+        <v>667340</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>4657</v>
+        <v>673667</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>4662</v>
+        <v>674372</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>4669</v>
+        <v>681983</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>4703</v>
+        <v>682586</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>4705</v>
+        <v>683281</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>4706</v>
+        <v>684456</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>4714</v>
+        <v>691808</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>4783</v>
+        <v>695131</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>4796</v>
+        <v>715069</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>4876</v>
+        <v>723355</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>5120</v>
+        <v>724497</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>5287</v>
+        <v>734594</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>5327</v>
+        <v>741421</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>5334</v>
+        <v>744195</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>5336</v>
+        <v>747982</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>5339</v>
+        <v>756394</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>5347</v>
+        <v>758759</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>5452</v>
+        <v>767388</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>5505</v>
+        <v>769229</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>5527</v>
+        <v>773883</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>28696</v>
+        <v>776301</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>42739</v>
+        <v>781538</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>46951</v>
+        <v>853281</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>58007</v>
+        <v>915294</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>71958</v>
+        <v>916251</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>73640</v>
+        <v>943844</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>81090</v>
+        <v>949477</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>90837</v>
+        <v>951661</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>91489</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223">
-        <v>92893</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224">
-        <v>93564</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225">
-        <v>93819</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226">
-        <v>111780</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227">
-        <v>119804</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228">
-        <v>299600</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229">
-        <v>304879</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230">
-        <v>317463</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231">
-        <v>352359</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232">
-        <v>368265</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233">
-        <v>397605</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234">
-        <v>399334</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235">
-        <v>404164</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236">
-        <v>406087</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237">
-        <v>410710</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238">
-        <v>413236</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239">
-        <v>413239</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240">
-        <v>413524</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241">
-        <v>435491</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242">
-        <v>446833</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243">
-        <v>456023</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244">
-        <v>456499</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245">
-        <v>473106</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246">
-        <v>489946</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247">
-        <v>492411</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248">
-        <v>573350</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249">
-        <v>574730</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250">
-        <v>631058</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251">
-        <v>636178</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252">
-        <v>723355</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253">
-        <v>734594</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254">
-        <v>773883</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255">
-        <v>915294</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256">
-        <v>943844</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257">
-        <v>951661</v>
+        <v>951815</v>
       </c>
     </row>
   </sheetData>

--- a/WS_tags/tag_3151_list.xlsx
+++ b/WS_tags/tag_3151_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A222"/>
+  <dimension ref="A1:A582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,1102 +392,2902 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>28233</v>
+        <v>25641</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>40253</v>
+        <v>27128</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>42739</v>
+        <v>28233</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>46951</v>
+        <v>32645</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>57243</v>
+        <v>40253</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>57964</v>
+        <v>42739</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>58007</v>
+        <v>46951</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>71430</v>
+        <v>57243</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>71555</v>
+        <v>57964</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>71958</v>
+        <v>58007</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>73640</v>
+        <v>71430</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>75656</v>
+        <v>71555</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>77593</v>
+        <v>71958</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>81090</v>
+        <v>73640</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>89738</v>
+        <v>75656</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>90505</v>
+        <v>77593</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>90837</v>
+        <v>81090</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>91207</v>
+        <v>84177</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>91489</v>
+        <v>89738</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>92163</v>
+        <v>90505</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>92893</v>
+        <v>90837</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>93564</v>
+        <v>91207</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>93819</v>
+        <v>91305</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>119317</v>
+        <v>91489</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>119804</v>
+        <v>92163</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>122769</v>
+        <v>92893</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>126062</v>
+        <v>93564</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>131836</v>
+        <v>93819</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>134367</v>
+        <v>109509</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>188901</v>
+        <v>119317</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>202073</v>
+        <v>119570</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>214858</v>
+        <v>119804</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>216789</v>
+        <v>120221</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>216994</v>
+        <v>120659</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>223217</v>
+        <v>122692</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>226226</v>
+        <v>122769</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>227320</v>
+        <v>123662</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>230914</v>
+        <v>126062</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>233781</v>
+        <v>126810</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>236055</v>
+        <v>130653</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>236147</v>
+        <v>131420</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>237270</v>
+        <v>131836</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>240041</v>
+        <v>133865</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>242539</v>
+        <v>134367</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>242560</v>
+        <v>154395</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>243021</v>
+        <v>177016</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>245143</v>
+        <v>188901</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>245557</v>
+        <v>202073</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>253288</v>
+        <v>202252</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>253379</v>
+        <v>205535</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>257303</v>
+        <v>210037</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>259339</v>
+        <v>214858</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>261962</v>
+        <v>216745</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>262378</v>
+        <v>216789</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>264870</v>
+        <v>216994</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>266658</v>
+        <v>219206</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>274079</v>
+        <v>226226</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>276269</v>
+        <v>227320</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>276981</v>
+        <v>228684</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>277088</v>
+        <v>229966</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>277544</v>
+        <v>230914</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>282390</v>
+        <v>232863</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>284270</v>
+        <v>233266</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>286265</v>
+        <v>233361</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>288078</v>
+        <v>233781</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>297758</v>
+        <v>235149</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>304014</v>
+        <v>236055</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>304879</v>
+        <v>236147</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>306704</v>
+        <v>237270</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>306808</v>
+        <v>237820</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>307011</v>
+        <v>238343</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>307031</v>
+        <v>240041</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>316867</v>
+        <v>242539</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>317463</v>
+        <v>242560</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>325285</v>
+        <v>242972</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>329676</v>
+        <v>243021</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>329843</v>
+        <v>243048</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>330186</v>
+        <v>243262</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>330721</v>
+        <v>245557</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>333242</v>
+        <v>251634</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>333327</v>
+        <v>253288</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>334823</v>
+        <v>253379</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>338125</v>
+        <v>255504</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>338207</v>
+        <v>257303</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>342849</v>
+        <v>257816</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>343261</v>
+        <v>259339</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>346457</v>
+        <v>260386</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>346884</v>
+        <v>262378</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>347315</v>
+        <v>264870</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>352359</v>
+        <v>266658</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>352433</v>
+        <v>269937</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>353032</v>
+        <v>271581</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>354313</v>
+        <v>273283</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>355640</v>
+        <v>274079</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>356730</v>
+        <v>275113</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>358134</v>
+        <v>276269</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>359057</v>
+        <v>276502</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>359220</v>
+        <v>276687</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>359594</v>
+        <v>276981</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>359765</v>
+        <v>277544</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>360665</v>
+        <v>282390</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>361824</v>
+        <v>283673</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>362086</v>
+        <v>284270</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>366642</v>
+        <v>286265</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>368265</v>
+        <v>288078</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>370264</v>
+        <v>292617</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>373957</v>
+        <v>295737</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>374628</v>
+        <v>297758</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>375230</v>
+        <v>304014</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>377884</v>
+        <v>304879</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>380456</v>
+        <v>306704</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>392065</v>
+        <v>306807</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>397605</v>
+        <v>306808</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>398605</v>
+        <v>306842</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>399334</v>
+        <v>307031</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>400649</v>
+        <v>308129</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>400883</v>
+        <v>308439</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>403030</v>
+        <v>309457</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>404164</v>
+        <v>312050</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>406049</v>
+        <v>316867</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>406087</v>
+        <v>317463</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>407083</v>
+        <v>321152</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>408198</v>
+        <v>323042</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>408433</v>
+        <v>325285</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>408560</v>
+        <v>329676</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>408597</v>
+        <v>329710</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>410358</v>
+        <v>329843</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>410414</v>
+        <v>330186</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>410710</v>
+        <v>330721</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>412414</v>
+        <v>331781</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>413236</v>
+        <v>333242</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>413239</v>
+        <v>333327</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>413524</v>
+        <v>334823</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>413709</v>
+        <v>335117</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>414652</v>
+        <v>335425</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>414756</v>
+        <v>338125</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>416748</v>
+        <v>338207</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>421421</v>
+        <v>342050</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>435070</v>
+        <v>342755</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>435491</v>
+        <v>342849</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>436065</v>
+        <v>343565</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>445922</v>
+        <v>343590</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>446833</v>
+        <v>344679</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>452541</v>
+        <v>344707</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>456023</v>
+        <v>345038</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>469137</v>
+        <v>345300</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>473106</v>
+        <v>346457</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>477095</v>
+        <v>346767</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>478331</v>
+        <v>346884</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>480663</v>
+        <v>347222</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>481925</v>
+        <v>347315</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>482049</v>
+        <v>352359</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>489946</v>
+        <v>352433</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>490691</v>
+        <v>353032</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>492411</v>
+        <v>353290</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>494566</v>
+        <v>353336</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>494771</v>
+        <v>354313</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>506325</v>
+        <v>355640</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>509425</v>
+        <v>356222</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>513453</v>
+        <v>356730</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>514930</v>
+        <v>357953</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>518872</v>
+        <v>358134</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>520730</v>
+        <v>359057</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>524022</v>
+        <v>359220</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>530702</v>
+        <v>359594</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>539161</v>
+        <v>359765</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>540495</v>
+        <v>360014</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>542012</v>
+        <v>360047</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>544985</v>
+        <v>360085</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>546211</v>
+        <v>360665</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>553946</v>
+        <v>360794</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>557888</v>
+        <v>360943</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>558758</v>
+        <v>361824</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>568285</v>
+        <v>362086</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>573222</v>
+        <v>363722</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>573350</v>
+        <v>365913</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>574730</v>
+        <v>366642</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>576373</v>
+        <v>366828</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>576465</v>
+        <v>366998</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>591293</v>
+        <v>368265</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>593209</v>
+        <v>369457</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>595719</v>
+        <v>370264</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>616896</v>
+        <v>372786</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>631058</v>
+        <v>373829</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>636178</v>
+        <v>373957</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>654136</v>
+        <v>374584</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>656889</v>
+        <v>374628</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>659128</v>
+        <v>375230</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>662855</v>
+        <v>375697</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>665254</v>
+        <v>377884</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>667340</v>
+        <v>379165</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>673667</v>
+        <v>380456</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>674372</v>
+        <v>381547</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>681983</v>
+        <v>381611</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>682586</v>
+        <v>381849</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>683281</v>
+        <v>382302</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>684456</v>
+        <v>382775</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>691808</v>
+        <v>382820</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>695131</v>
+        <v>384286</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>715069</v>
+        <v>384836</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>723355</v>
+        <v>384962</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>724497</v>
+        <v>385226</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>734594</v>
+        <v>389723</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>741421</v>
+        <v>390745</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>744195</v>
+        <v>390829</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>747982</v>
+        <v>391039</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>756394</v>
+        <v>392065</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>758759</v>
+        <v>392190</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>767388</v>
+        <v>397605</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>769229</v>
+        <v>397693</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>773883</v>
+        <v>398605</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>776301</v>
+        <v>398978</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>781538</v>
+        <v>399013</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>853281</v>
+        <v>399334</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>915294</v>
+        <v>400649</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>916251</v>
+        <v>400671</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>943844</v>
+        <v>400883</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>949477</v>
+        <v>403030</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>951661</v>
+        <v>404164</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
+        <v>404897</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223">
+        <v>405156</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224">
+        <v>406049</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225">
+        <v>406087</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226">
+        <v>407083</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227">
+        <v>408198</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228">
+        <v>408433</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229">
+        <v>408560</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230">
+        <v>408731</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231">
+        <v>410358</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232">
+        <v>410414</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233">
+        <v>410710</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234">
+        <v>411313</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235">
+        <v>412414</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236">
+        <v>413236</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237">
+        <v>413239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
+        <v>413524</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239">
+        <v>413709</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240">
+        <v>413974</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241">
+        <v>414652</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242">
+        <v>414756</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243">
+        <v>416748</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244">
+        <v>417356</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245">
+        <v>417645</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246">
+        <v>421421</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247">
+        <v>421719</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248">
+        <v>422155</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249">
+        <v>422351</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250">
+        <v>424767</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251">
+        <v>426138</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252">
+        <v>426785</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253">
+        <v>429060</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254">
+        <v>429082</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255">
+        <v>434870</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256">
+        <v>435070</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257">
+        <v>435491</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258">
+        <v>436065</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259">
+        <v>436335</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260">
+        <v>437723</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261">
+        <v>439835</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262">
+        <v>440981</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263">
+        <v>442166</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264">
+        <v>442906</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265">
+        <v>443672</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266">
+        <v>445255</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267">
+        <v>445922</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268">
+        <v>446833</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269">
+        <v>447596</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270">
+        <v>451213</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271">
+        <v>452133</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272">
+        <v>452541</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273">
+        <v>452904</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274">
+        <v>455717</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275">
+        <v>456023</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276">
+        <v>463406</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277">
+        <v>463494</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278">
+        <v>463920</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279">
+        <v>465834</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280">
+        <v>468083</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281">
+        <v>469137</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282">
+        <v>473106</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283">
+        <v>477095</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284">
+        <v>477723</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285">
+        <v>478331</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286">
+        <v>480663</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287">
+        <v>481592</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288">
+        <v>481925</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289">
+        <v>482049</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290">
+        <v>486045</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291">
+        <v>487091</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292">
+        <v>488565</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293">
+        <v>489026</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294">
+        <v>489398</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295">
+        <v>489946</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296">
+        <v>490691</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297">
+        <v>491972</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298">
+        <v>491974</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299">
+        <v>491988</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300">
+        <v>492054</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301">
+        <v>492278</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302">
+        <v>492411</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303">
+        <v>494566</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304">
+        <v>494771</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305">
+        <v>495013</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306">
+        <v>495034</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307">
+        <v>495592</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308">
+        <v>495862</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309">
+        <v>496117</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310">
+        <v>497861</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311">
+        <v>499013</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312">
+        <v>499236</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313">
+        <v>502560</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314">
+        <v>506325</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315">
+        <v>509425</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316">
+        <v>509819</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317">
+        <v>511445</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318">
+        <v>513412</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319">
+        <v>513453</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320">
+        <v>514930</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321">
+        <v>518872</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322">
+        <v>520730</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323">
+        <v>520836</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324">
+        <v>520847</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325">
+        <v>521978</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326">
+        <v>523177</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327">
+        <v>524022</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328">
+        <v>528276</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329">
+        <v>529071</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330">
+        <v>530702</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331">
+        <v>532304</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332">
+        <v>539161</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333">
+        <v>540495</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334">
+        <v>542012</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335">
+        <v>542617</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336">
+        <v>544565</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337">
+        <v>544985</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338">
+        <v>546211</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339">
+        <v>548478</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340">
+        <v>550085</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341">
+        <v>551134</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342">
+        <v>553946</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343">
+        <v>554545</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344">
+        <v>555814</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345">
+        <v>557888</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346">
+        <v>558748</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347">
+        <v>558758</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348">
+        <v>559669</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349">
+        <v>559941</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350">
+        <v>561125</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351">
+        <v>561139</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352">
+        <v>561142</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353">
+        <v>561437</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354">
+        <v>561883</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355">
+        <v>562742</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356">
+        <v>563194</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357">
+        <v>568285</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358">
+        <v>572996</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359">
+        <v>573222</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360">
+        <v>573350</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361">
+        <v>574195</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362">
+        <v>574730</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363">
+        <v>576373</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364">
+        <v>576465</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365">
+        <v>584458</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366">
+        <v>585494</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367">
+        <v>589195</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368">
+        <v>590458</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369">
+        <v>591293</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370">
+        <v>593209</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371">
+        <v>593506</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372">
+        <v>595719</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373">
+        <v>596069</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374">
+        <v>598262</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375">
+        <v>600059</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376">
+        <v>600296</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377">
+        <v>601691</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378">
+        <v>614747</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379">
+        <v>616896</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380">
+        <v>618661</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381">
+        <v>619831</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382">
+        <v>623645</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383">
+        <v>627163</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384">
+        <v>628469</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385">
+        <v>630131</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386">
+        <v>631058</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387">
+        <v>634270</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388">
+        <v>635550</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389">
+        <v>636178</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390">
+        <v>637115</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391">
+        <v>637424</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392">
+        <v>641609</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393">
+        <v>643749</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394">
+        <v>651428</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395">
+        <v>651749</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396">
+        <v>654018</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397">
+        <v>654136</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398">
+        <v>656376</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399">
+        <v>656889</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400">
+        <v>657601</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401">
+        <v>659258</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402">
+        <v>660147</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403">
+        <v>660588</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404">
+        <v>661111</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405">
+        <v>661749</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406">
+        <v>662855</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407">
+        <v>664664</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408">
+        <v>667340</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409">
+        <v>669808</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410">
+        <v>673667</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411">
+        <v>674372</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412">
+        <v>674374</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413">
+        <v>677403</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414">
+        <v>681257</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415">
+        <v>681842</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416">
+        <v>681983</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417">
+        <v>682586</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418">
+        <v>682948</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419">
+        <v>683281</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420">
+        <v>684456</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421">
+        <v>685790</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422">
+        <v>686158</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423">
+        <v>691808</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424">
+        <v>696620</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425">
+        <v>698438</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426">
+        <v>700156</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427">
+        <v>700700</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428">
+        <v>704473</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429">
+        <v>706127</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430">
+        <v>707679</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431">
+        <v>709484</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432">
+        <v>710442</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433">
+        <v>711454</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434">
+        <v>712251</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435">
+        <v>715069</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436">
+        <v>715655</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437">
+        <v>717031</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438">
+        <v>718028</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439">
+        <v>718053</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440">
+        <v>720288</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441">
+        <v>720938</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442">
+        <v>721639</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443">
+        <v>723355</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444">
+        <v>724497</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445">
+        <v>724761</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446">
+        <v>729850</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447">
+        <v>730620</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448">
+        <v>730739</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449">
+        <v>731725</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450">
+        <v>732994</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451">
+        <v>734594</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452">
+        <v>735240</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453">
+        <v>737640</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454">
+        <v>741414</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455">
+        <v>741421</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456">
+        <v>743604</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457">
+        <v>744195</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458">
+        <v>745510</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459">
+        <v>747982</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460">
+        <v>753610</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461">
+        <v>756394</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462">
+        <v>758759</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463">
+        <v>765034</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464">
+        <v>766572</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465">
+        <v>767388</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466">
+        <v>769229</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467">
+        <v>772304</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468">
+        <v>773379</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469">
+        <v>773883</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470">
+        <v>774540</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471">
+        <v>776301</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472">
+        <v>778547</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473">
+        <v>779704</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474">
+        <v>781538</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475">
+        <v>783712</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476">
+        <v>785553</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477">
+        <v>785592</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478">
+        <v>849338</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479">
+        <v>850822</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480">
+        <v>851927</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481">
+        <v>852611</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482">
+        <v>853281</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483">
+        <v>862437</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484">
+        <v>862594</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485">
+        <v>865475</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486">
+        <v>867814</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487">
+        <v>868914</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488">
+        <v>872003</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489">
+        <v>873359</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490">
+        <v>874816</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491">
+        <v>878196</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492">
+        <v>879270</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493">
+        <v>880085</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494">
+        <v>885400</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495">
+        <v>905188</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496">
+        <v>907023</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497">
+        <v>915294</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498">
+        <v>916251</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499">
+        <v>919598</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500">
+        <v>921057</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501">
+        <v>926600</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502">
+        <v>930255</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503">
+        <v>930510</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504">
+        <v>931866</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505">
+        <v>932758</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506">
+        <v>936267</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507">
+        <v>937264</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508">
+        <v>939760</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509">
+        <v>941452</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510">
+        <v>941873</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511">
+        <v>943844</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512">
+        <v>944556</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513">
+        <v>946296</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514">
+        <v>947053</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515">
+        <v>948093</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516">
+        <v>948940</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517">
+        <v>949477</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518">
+        <v>950526</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519">
+        <v>950811</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520">
+        <v>951661</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521">
         <v>951815</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522">
+        <v>952620</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523">
+        <v>953115</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524">
+        <v>953459</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525">
+        <v>956408</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526">
+        <v>957088</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527">
+        <v>957156</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528">
+        <v>957212</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529">
+        <v>957479</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530">
+        <v>957549</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531">
+        <v>957578</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532">
+        <v>957602</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533">
+        <v>957624</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534">
+        <v>957639</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535">
+        <v>957812</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536">
+        <v>957895</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537">
+        <v>957931</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538">
+        <v>957937</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539">
+        <v>957944</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540">
+        <v>957947</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541">
+        <v>957950</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542">
+        <v>958173</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543">
+        <v>958185</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544">
+        <v>958220</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545">
+        <v>958240</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546">
+        <v>958281</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547">
+        <v>958298</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548">
+        <v>958351</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549">
+        <v>958364</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550">
+        <v>958370</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551">
+        <v>958599</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552">
+        <v>958952</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553">
+        <v>958993</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554">
+        <v>959135</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555">
+        <v>959239</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556">
+        <v>959328</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557">
+        <v>959493</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558">
+        <v>959594</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559">
+        <v>959669</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560">
+        <v>959838</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561">
+        <v>959849</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562">
+        <v>959930</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563">
+        <v>959962</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564">
+        <v>960208</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565">
+        <v>960317</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566">
+        <v>960330</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567">
+        <v>960335</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568">
+        <v>960589</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569">
+        <v>960638</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570">
+        <v>960658</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571">
+        <v>960719</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572">
+        <v>960748</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573">
+        <v>961395</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574">
+        <v>961412</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575">
+        <v>961973</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576">
+        <v>962047</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577">
+        <v>962069</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578">
+        <v>962090</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579">
+        <v>962093</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580">
+        <v>962106</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581">
+        <v>962145</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582">
+        <v>962148</v>
       </c>
     </row>
   </sheetData>

--- a/WS_tags/tag_3151_list.xlsx
+++ b/WS_tags/tag_3151_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A582"/>
+  <dimension ref="A1:A847"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,107 +407,107 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>32645</v>
+        <v>40253</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>40253</v>
+        <v>42739</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>42739</v>
+        <v>46951</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>46951</v>
+        <v>57243</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>57243</v>
+        <v>57964</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>57964</v>
+        <v>58007</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>58007</v>
+        <v>71430</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>71430</v>
+        <v>71555</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>71555</v>
+        <v>71958</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>71958</v>
+        <v>73640</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>73640</v>
+        <v>75656</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>75656</v>
+        <v>77593</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>77593</v>
+        <v>81090</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>81090</v>
+        <v>84177</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>84177</v>
+        <v>89738</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>89738</v>
+        <v>90505</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>90505</v>
+        <v>90837</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>90837</v>
+        <v>91207</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>91207</v>
+        <v>91305</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>91305</v>
+        <v>91489</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>91489</v>
+        <v>91758</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -587,2707 +587,4032 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>130653</v>
+        <v>127728</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>131420</v>
+        <v>130653</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>131836</v>
+        <v>131420</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>133865</v>
+        <v>131836</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>134367</v>
+        <v>133865</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>154395</v>
+        <v>134367</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>177016</v>
+        <v>154395</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>188901</v>
+        <v>177016</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>202073</v>
+        <v>188901</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>202252</v>
+        <v>202073</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>205535</v>
+        <v>202252</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>210037</v>
+        <v>205535</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>214858</v>
+        <v>210037</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>216745</v>
+        <v>214858</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>216789</v>
+        <v>216745</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>216994</v>
+        <v>216789</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>219206</v>
+        <v>216994</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>226226</v>
+        <v>219206</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>227320</v>
+        <v>219952</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>228684</v>
+        <v>224909</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>229966</v>
+        <v>226088</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>230914</v>
+        <v>226226</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>232863</v>
+        <v>227320</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>233266</v>
+        <v>227506</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>233361</v>
+        <v>228684</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>233781</v>
+        <v>229966</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>235149</v>
+        <v>230914</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>236055</v>
+        <v>232453</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>236147</v>
+        <v>232863</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>237270</v>
+        <v>233266</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>237820</v>
+        <v>233361</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>238343</v>
+        <v>233781</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>240041</v>
+        <v>233793</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>242539</v>
+        <v>234636</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>242560</v>
+        <v>235149</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>242972</v>
+        <v>235545</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>243021</v>
+        <v>236055</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>243048</v>
+        <v>236147</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>243262</v>
+        <v>237270</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>245557</v>
+        <v>237820</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>251634</v>
+        <v>238343</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>253288</v>
+        <v>240041</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>253379</v>
+        <v>242539</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>255504</v>
+        <v>242560</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>257303</v>
+        <v>242972</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>257816</v>
+        <v>243021</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>259339</v>
+        <v>243048</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>260386</v>
+        <v>243262</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>262378</v>
+        <v>243729</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>264870</v>
+        <v>245557</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>266658</v>
+        <v>248043</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>269937</v>
+        <v>251634</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>271581</v>
+        <v>252404</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>273283</v>
+        <v>253379</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>274079</v>
+        <v>255504</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>275113</v>
+        <v>257303</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>276269</v>
+        <v>257816</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>276502</v>
+        <v>259339</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>276687</v>
+        <v>259913</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>276981</v>
+        <v>260386</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>277544</v>
+        <v>262378</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>282390</v>
+        <v>264870</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>283673</v>
+        <v>266041</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>284270</v>
+        <v>266658</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>286265</v>
+        <v>266982</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>288078</v>
+        <v>268060</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>292617</v>
+        <v>269937</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>295737</v>
+        <v>271581</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>297758</v>
+        <v>273283</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>304014</v>
+        <v>274026</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>304879</v>
+        <v>274079</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>306704</v>
+        <v>275113</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>306807</v>
+        <v>275748</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>306808</v>
+        <v>276191</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>306842</v>
+        <v>276269</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>307031</v>
+        <v>276502</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>308129</v>
+        <v>276687</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>308439</v>
+        <v>276981</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>309457</v>
+        <v>277544</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>312050</v>
+        <v>278547</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>316867</v>
+        <v>281103</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>317463</v>
+        <v>281757</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>321152</v>
+        <v>281764</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>323042</v>
+        <v>282101</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>325285</v>
+        <v>282390</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>329676</v>
+        <v>283673</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>329710</v>
+        <v>284270</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>329843</v>
+        <v>284555</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>330186</v>
+        <v>286265</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>330721</v>
+        <v>288078</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>331781</v>
+        <v>292617</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>333242</v>
+        <v>293504</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>333327</v>
+        <v>293695</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>334823</v>
+        <v>293798</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>335117</v>
+        <v>295480</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>335425</v>
+        <v>295737</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>338125</v>
+        <v>297758</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>338207</v>
+        <v>299408</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>342050</v>
+        <v>299531</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>342755</v>
+        <v>301023</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>342849</v>
+        <v>304014</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>343565</v>
+        <v>304879</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>343590</v>
+        <v>306704</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>344679</v>
+        <v>306807</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>344707</v>
+        <v>306808</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>345038</v>
+        <v>306842</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>345300</v>
+        <v>307011</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>346457</v>
+        <v>307031</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>346767</v>
+        <v>308053</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>346884</v>
+        <v>308129</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>347222</v>
+        <v>308439</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>347315</v>
+        <v>309457</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>352359</v>
+        <v>312050</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>352433</v>
+        <v>316867</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>353032</v>
+        <v>317463</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>353290</v>
+        <v>321152</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>353336</v>
+        <v>323042</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>354313</v>
+        <v>325104</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>355640</v>
+        <v>325285</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>356222</v>
+        <v>327621</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>356730</v>
+        <v>328346</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>357953</v>
+        <v>329676</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>358134</v>
+        <v>329710</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>359057</v>
+        <v>329843</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>359220</v>
+        <v>330186</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>359594</v>
+        <v>330533</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>359765</v>
+        <v>330721</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>360014</v>
+        <v>331781</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>360047</v>
+        <v>332586</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>360085</v>
+        <v>333242</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>360665</v>
+        <v>333327</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>360794</v>
+        <v>334823</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>360943</v>
+        <v>335117</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>361824</v>
+        <v>335425</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>362086</v>
+        <v>336371</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>363722</v>
+        <v>336558</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>365913</v>
+        <v>338125</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>366642</v>
+        <v>338207</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>366828</v>
+        <v>340664</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>366998</v>
+        <v>342050</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>368265</v>
+        <v>342755</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>369457</v>
+        <v>342849</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>370264</v>
+        <v>343261</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>372786</v>
+        <v>343565</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>373829</v>
+        <v>343590</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>373957</v>
+        <v>344185</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>374584</v>
+        <v>344679</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>374628</v>
+        <v>344707</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>375230</v>
+        <v>345038</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>375697</v>
+        <v>345300</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>377884</v>
+        <v>346457</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>379165</v>
+        <v>346767</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>380456</v>
+        <v>346844</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>381547</v>
+        <v>346884</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>381611</v>
+        <v>347222</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>381849</v>
+        <v>347315</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>382302</v>
+        <v>347991</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>382775</v>
+        <v>351808</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>382820</v>
+        <v>352359</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>384286</v>
+        <v>352433</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>384836</v>
+        <v>352600</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>384962</v>
+        <v>353032</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>385226</v>
+        <v>353290</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>389723</v>
+        <v>353336</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>390745</v>
+        <v>354313</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>390829</v>
+        <v>355598</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>391039</v>
+        <v>355640</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>392065</v>
+        <v>356222</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>392190</v>
+        <v>356730</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>397605</v>
+        <v>357953</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>397693</v>
+        <v>358134</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>398605</v>
+        <v>358243</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>398978</v>
+        <v>358985</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>399013</v>
+        <v>359057</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>399334</v>
+        <v>359077</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>400649</v>
+        <v>359220</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>400671</v>
+        <v>359594</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>400883</v>
+        <v>359765</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>403030</v>
+        <v>360021</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>404164</v>
+        <v>360085</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>404897</v>
+        <v>360665</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>405156</v>
+        <v>360736</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>406049</v>
+        <v>360794</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>406087</v>
+        <v>360943</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>407083</v>
+        <v>361824</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>408198</v>
+        <v>362086</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>408433</v>
+        <v>363722</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>408560</v>
+        <v>365436</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>408731</v>
+        <v>365913</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>410358</v>
+        <v>366642</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>410414</v>
+        <v>366828</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>410710</v>
+        <v>366998</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>411313</v>
+        <v>367961</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>412414</v>
+        <v>368265</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>413236</v>
+        <v>369457</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>413239</v>
+        <v>369552</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>413524</v>
+        <v>370264</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>413709</v>
+        <v>372499</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>413974</v>
+        <v>372786</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>414652</v>
+        <v>373829</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>414756</v>
+        <v>373957</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>416748</v>
+        <v>374584</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>417356</v>
+        <v>374628</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>417645</v>
+        <v>375230</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>421421</v>
+        <v>375503</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>421719</v>
+        <v>375626</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>422155</v>
+        <v>375697</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>422351</v>
+        <v>375936</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>424767</v>
+        <v>375983</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>426138</v>
+        <v>376340</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>426785</v>
+        <v>376660</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>429060</v>
+        <v>377884</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>429082</v>
+        <v>379165</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>434870</v>
+        <v>380095</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>435070</v>
+        <v>380456</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>435491</v>
+        <v>381505</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>436065</v>
+        <v>381547</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>436335</v>
+        <v>381611</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>437723</v>
+        <v>381849</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>439835</v>
+        <v>382069</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>440981</v>
+        <v>382302</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>442166</v>
+        <v>382775</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>442906</v>
+        <v>384187</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>443672</v>
+        <v>384286</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>445255</v>
+        <v>384493</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>445922</v>
+        <v>384836</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>446833</v>
+        <v>384962</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>447596</v>
+        <v>385226</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>451213</v>
+        <v>389398</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>452133</v>
+        <v>389723</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>452541</v>
+        <v>390745</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>452904</v>
+        <v>390829</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>455717</v>
+        <v>391039</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>456023</v>
+        <v>392065</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>463406</v>
+        <v>392190</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>463494</v>
+        <v>395005</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>463920</v>
+        <v>395456</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>465834</v>
+        <v>395564</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>468083</v>
+        <v>397605</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>469137</v>
+        <v>397693</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>473106</v>
+        <v>398605</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>477095</v>
+        <v>398945</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>477723</v>
+        <v>398978</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>478331</v>
+        <v>399013</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>480663</v>
+        <v>399087</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>481592</v>
+        <v>399334</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>481925</v>
+        <v>400649</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>482049</v>
+        <v>400671</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>486045</v>
+        <v>400883</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>487091</v>
+        <v>402145</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>488565</v>
+        <v>403030</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>489026</v>
+        <v>404164</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>489398</v>
+        <v>404766</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>489946</v>
+        <v>404897</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>490691</v>
+        <v>405156</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>491972</v>
+        <v>406049</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>491974</v>
+        <v>406087</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>491988</v>
+        <v>407083</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>492054</v>
+        <v>407496</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>492278</v>
+        <v>408198</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>492411</v>
+        <v>408433</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>494566</v>
+        <v>408560</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>494771</v>
+        <v>408731</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>495013</v>
+        <v>409257</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>495034</v>
+        <v>410358</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>495592</v>
+        <v>410414</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>495862</v>
+        <v>410710</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>496117</v>
+        <v>411231</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>497861</v>
+        <v>411313</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>499013</v>
+        <v>412414</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>499236</v>
+        <v>412451</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>502560</v>
+        <v>412529</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>506325</v>
+        <v>413236</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>509425</v>
+        <v>413239</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>509819</v>
+        <v>413524</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>511445</v>
+        <v>413593</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>513412</v>
+        <v>413709</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>513453</v>
+        <v>413974</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>514930</v>
+        <v>414652</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>518872</v>
+        <v>414756</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>520730</v>
+        <v>416748</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>520836</v>
+        <v>417356</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>520847</v>
+        <v>417645</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>521978</v>
+        <v>418803</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>523177</v>
+        <v>421421</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>524022</v>
+        <v>421719</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>528276</v>
+        <v>422155</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>529071</v>
+        <v>422351</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>530702</v>
+        <v>422798</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>532304</v>
+        <v>424767</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>539161</v>
+        <v>426138</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>540495</v>
+        <v>426241</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>542012</v>
+        <v>429060</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>542617</v>
+        <v>429082</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>544565</v>
+        <v>429490</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>544985</v>
+        <v>432261</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>546211</v>
+        <v>432368</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>548478</v>
+        <v>432672</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>550085</v>
+        <v>434870</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>551134</v>
+        <v>435070</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>553946</v>
+        <v>435491</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>554545</v>
+        <v>436065</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>555814</v>
+        <v>436335</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>557888</v>
+        <v>437481</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>558748</v>
+        <v>437723</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>558758</v>
+        <v>437731</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>559669</v>
+        <v>439387</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>559941</v>
+        <v>439835</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>561125</v>
+        <v>440320</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>561139</v>
+        <v>440981</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>561142</v>
+        <v>441352</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>561437</v>
+        <v>441573</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>561883</v>
+        <v>442166</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>562742</v>
+        <v>442906</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>563194</v>
+        <v>445922</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>568285</v>
+        <v>446630</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>572996</v>
+        <v>446833</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>573222</v>
+        <v>447252</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>573350</v>
+        <v>447596</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>574195</v>
+        <v>451001</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>574730</v>
+        <v>451213</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>576373</v>
+        <v>452541</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>576465</v>
+        <v>452904</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>584458</v>
+        <v>455717</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>585494</v>
+        <v>456023</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>589195</v>
+        <v>458445</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>590458</v>
+        <v>462417</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>591293</v>
+        <v>463406</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>593209</v>
+        <v>463494</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>593506</v>
+        <v>463920</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>595719</v>
+        <v>465422</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>596069</v>
+        <v>465755</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>598262</v>
+        <v>466057</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>600059</v>
+        <v>466982</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>600296</v>
+        <v>468083</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>601691</v>
+        <v>468559</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>614747</v>
+        <v>468803</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>616896</v>
+        <v>469137</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>618661</v>
+        <v>471225</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>619831</v>
+        <v>472002</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>623645</v>
+        <v>473106</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>627163</v>
+        <v>473371</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>628469</v>
+        <v>474038</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>630131</v>
+        <v>474980</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>631058</v>
+        <v>477095</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>634270</v>
+        <v>477344</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>635550</v>
+        <v>477723</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>636178</v>
+        <v>478331</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>637115</v>
+        <v>479750</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>637424</v>
+        <v>480663</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>641609</v>
+        <v>481592</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>643749</v>
+        <v>481925</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>651428</v>
+        <v>482049</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>651749</v>
+        <v>482101</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>654018</v>
+        <v>482130</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>654136</v>
+        <v>483759</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>656376</v>
+        <v>486045</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>656889</v>
+        <v>486404</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>657601</v>
+        <v>487091</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>659258</v>
+        <v>488565</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>660147</v>
+        <v>489026</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>660588</v>
+        <v>489398</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>661111</v>
+        <v>489691</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>661749</v>
+        <v>489946</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>662855</v>
+        <v>490691</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>664664</v>
+        <v>491592</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>667340</v>
+        <v>491972</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>669808</v>
+        <v>491988</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>673667</v>
+        <v>492278</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>674372</v>
+        <v>492411</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>674374</v>
+        <v>494566</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>677403</v>
+        <v>494771</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>681257</v>
+        <v>495013</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>681842</v>
+        <v>495034</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>681983</v>
+        <v>495592</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>682586</v>
+        <v>495862</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>682948</v>
+        <v>496117</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>683281</v>
+        <v>497049</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>684456</v>
+        <v>497379</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>685790</v>
+        <v>497861</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>686158</v>
+        <v>499013</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>691808</v>
+        <v>499236</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>696620</v>
+        <v>504155</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>698438</v>
+        <v>505566</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>700156</v>
+        <v>506325</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>700700</v>
+        <v>509160</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>704473</v>
+        <v>509425</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>706127</v>
+        <v>509819</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>707679</v>
+        <v>511445</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>709484</v>
+        <v>511824</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>710442</v>
+        <v>513412</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>711454</v>
+        <v>513453</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>712251</v>
+        <v>514930</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>715069</v>
+        <v>515709</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>715655</v>
+        <v>517615</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>717031</v>
+        <v>518872</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>718028</v>
+        <v>519352</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>718053</v>
+        <v>519618</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>720288</v>
+        <v>520730</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>720938</v>
+        <v>520847</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>721639</v>
+        <v>521978</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>723355</v>
+        <v>523177</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>724497</v>
+        <v>523591</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>724761</v>
+        <v>524022</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>729850</v>
+        <v>525729</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>730620</v>
+        <v>526057</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>730739</v>
+        <v>528276</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>731725</v>
+        <v>529071</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>732994</v>
+        <v>529335</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>734594</v>
+        <v>530702</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>735240</v>
+        <v>532304</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>737640</v>
+        <v>536689</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>741414</v>
+        <v>539161</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>741421</v>
+        <v>540495</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>743604</v>
+        <v>542012</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>744195</v>
+        <v>542172</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>745510</v>
+        <v>542617</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>747982</v>
+        <v>543581</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>753610</v>
+        <v>544476</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>756394</v>
+        <v>544565</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>758759</v>
+        <v>544985</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>765034</v>
+        <v>545283</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>766572</v>
+        <v>546211</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>767388</v>
+        <v>548627</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>769229</v>
+        <v>550085</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>772304</v>
+        <v>551134</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>773379</v>
+        <v>551220</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>773883</v>
+        <v>553946</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>774540</v>
+        <v>554545</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>776301</v>
+        <v>555814</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>778547</v>
+        <v>557888</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>779704</v>
+        <v>558748</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>781538</v>
+        <v>558758</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>783712</v>
+        <v>559669</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>785553</v>
+        <v>559941</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>785592</v>
+        <v>561139</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>849338</v>
+        <v>561142</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>850822</v>
+        <v>561437</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>851927</v>
+        <v>561781</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>852611</v>
+        <v>561883</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>853281</v>
+        <v>562742</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>862437</v>
+        <v>563194</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>862594</v>
+        <v>565081</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>865475</v>
+        <v>567194</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>867814</v>
+        <v>568285</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>868914</v>
+        <v>568520</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>872003</v>
+        <v>572996</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>873359</v>
+        <v>573222</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>874816</v>
+        <v>574048</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>878196</v>
+        <v>574084</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>879270</v>
+        <v>574195</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>880085</v>
+        <v>574730</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>885400</v>
+        <v>576373</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>905188</v>
+        <v>576465</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>907023</v>
+        <v>580029</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>915294</v>
+        <v>584438</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>916251</v>
+        <v>584458</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>919598</v>
+        <v>585338</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>921057</v>
+        <v>585494</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>926600</v>
+        <v>585919</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>930255</v>
+        <v>589195</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>930510</v>
+        <v>590458</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>931866</v>
+        <v>591057</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>932758</v>
+        <v>591293</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>936267</v>
+        <v>592963</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>937264</v>
+        <v>593209</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>939760</v>
+        <v>593506</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>941452</v>
+        <v>595719</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>941873</v>
+        <v>595815</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>943844</v>
+        <v>596069</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>944556</v>
+        <v>598262</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>946296</v>
+        <v>600059</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>947053</v>
+        <v>600296</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>948093</v>
+        <v>601691</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>948940</v>
+        <v>614343</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>949477</v>
+        <v>614344</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>950526</v>
+        <v>614747</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>950811</v>
+        <v>616896</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>951661</v>
+        <v>617909</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>951815</v>
+        <v>618661</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>952620</v>
+        <v>619831</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>953115</v>
+        <v>623929</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>953459</v>
+        <v>624743</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>956408</v>
+        <v>627163</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>957088</v>
+        <v>628469</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>957156</v>
+        <v>630131</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>957212</v>
+        <v>631058</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>957479</v>
+        <v>634270</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>957549</v>
+        <v>634365</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>957578</v>
+        <v>635335</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>957602</v>
+        <v>635550</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>957624</v>
+        <v>635818</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>957639</v>
+        <v>636178</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>957812</v>
+        <v>636806</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>957895</v>
+        <v>637115</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>957931</v>
+        <v>637424</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>957937</v>
+        <v>640062</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>957944</v>
+        <v>641609</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>957947</v>
+        <v>643749</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>957950</v>
+        <v>644203</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>958173</v>
+        <v>644475</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>958185</v>
+        <v>647990</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>958220</v>
+        <v>649581</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>958240</v>
+        <v>651428</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>958281</v>
+        <v>653377</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>958298</v>
+        <v>654018</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>958351</v>
+        <v>654136</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>958364</v>
+        <v>656376</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>958370</v>
+        <v>656889</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>958599</v>
+        <v>657601</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>958952</v>
+        <v>659258</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>958993</v>
+        <v>660147</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>959135</v>
+        <v>660588</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>959239</v>
+        <v>661111</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>959328</v>
+        <v>661749</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>959493</v>
+        <v>662855</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>959594</v>
+        <v>663211</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>959669</v>
+        <v>664573</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>959838</v>
+        <v>664664</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>959849</v>
+        <v>667340</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>959930</v>
+        <v>669808</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>959962</v>
+        <v>670156</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>960208</v>
+        <v>671531</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>960317</v>
+        <v>673667</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>960330</v>
+        <v>674011</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>960335</v>
+        <v>674372</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>960589</v>
+        <v>674374</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>960638</v>
+        <v>677403</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>960658</v>
+        <v>681257</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>960719</v>
+        <v>681842</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>960748</v>
+        <v>681983</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>961395</v>
+        <v>682586</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>961412</v>
+        <v>682948</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>961973</v>
+        <v>683281</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>962047</v>
+        <v>684456</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>962069</v>
+        <v>684620</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>962090</v>
+        <v>685790</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>962093</v>
+        <v>686158</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>962106</v>
+        <v>691808</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>962145</v>
+        <v>692748</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
+        <v>692783</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583">
+        <v>693866</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584">
+        <v>695558</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585">
+        <v>696620</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586">
+        <v>697056</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587">
+        <v>697739</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588">
+        <v>698438</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589">
+        <v>700156</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590">
+        <v>700700</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591">
+        <v>701947</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592">
+        <v>704473</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593">
+        <v>706127</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594">
+        <v>707679</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595">
+        <v>709484</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596">
+        <v>710442</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597">
+        <v>711454</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598">
+        <v>712251</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599">
+        <v>715069</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600">
+        <v>715655</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601">
+        <v>717031</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602">
+        <v>718028</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603">
+        <v>718053</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604">
+        <v>720288</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605">
+        <v>720938</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606">
+        <v>721639</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607">
+        <v>723097</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608">
+        <v>723355</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609">
+        <v>724497</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610">
+        <v>724761</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611">
+        <v>727555</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612">
+        <v>729850</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613">
+        <v>730360</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614">
+        <v>730620</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615">
+        <v>730739</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616">
+        <v>731725</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617">
+        <v>732994</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618">
+        <v>733709</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619">
+        <v>734594</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620">
+        <v>735046</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621">
+        <v>735240</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622">
+        <v>735664</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623">
+        <v>737312</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624">
+        <v>737640</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625">
+        <v>738051</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626">
+        <v>741414</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627">
+        <v>741421</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628">
+        <v>741430</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629">
+        <v>742574</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630">
+        <v>742581</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631">
+        <v>743604</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632">
+        <v>743762</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633">
+        <v>744056</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634">
+        <v>744195</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635">
+        <v>745510</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636">
+        <v>746527</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637">
+        <v>747709</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638">
+        <v>747982</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639">
+        <v>753610</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640">
+        <v>756394</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641">
+        <v>756999</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642">
+        <v>758759</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643">
+        <v>760756</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644">
+        <v>763250</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645">
+        <v>765034</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646">
+        <v>766292</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647">
+        <v>766450</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648">
+        <v>766572</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649">
+        <v>767388</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650">
+        <v>769229</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651">
+        <v>770123</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652">
+        <v>770132</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653">
+        <v>770837</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654">
+        <v>772304</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655">
+        <v>773379</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656">
+        <v>773412</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657">
+        <v>773883</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658">
+        <v>774540</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659">
+        <v>775024</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660">
+        <v>776301</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661">
+        <v>776603</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662">
+        <v>778547</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663">
+        <v>779704</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664">
+        <v>781538</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665">
+        <v>782560</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666">
+        <v>783712</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667">
+        <v>785358</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668">
+        <v>785366</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669">
+        <v>785553</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670">
+        <v>785592</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671">
+        <v>790045</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672">
+        <v>790235</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673">
+        <v>791672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674">
+        <v>792283</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675">
+        <v>798233</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676">
+        <v>816669</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677">
+        <v>849338</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678">
+        <v>850822</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679">
+        <v>852611</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680">
+        <v>853281</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681">
+        <v>854249</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682">
+        <v>855262</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683">
+        <v>862437</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684">
+        <v>862594</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685">
+        <v>863545</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686">
+        <v>864774</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687">
+        <v>865475</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688">
+        <v>867814</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689">
+        <v>868914</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690">
+        <v>871051</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691">
+        <v>872017</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692">
+        <v>872799</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693">
+        <v>873207</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694">
+        <v>873359</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695">
+        <v>873360</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696">
+        <v>873681</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697">
+        <v>874816</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698">
+        <v>877164</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699">
+        <v>877972</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700">
+        <v>878196</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701">
+        <v>879270</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702">
+        <v>879857</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703">
+        <v>880085</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704">
+        <v>884531</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705">
+        <v>885400</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706">
+        <v>885433</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707">
+        <v>900539</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708">
+        <v>907023</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709">
+        <v>907500</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710">
+        <v>909829</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711">
+        <v>915294</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712">
+        <v>916251</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713">
+        <v>917258</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714">
+        <v>919598</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715">
+        <v>921057</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716">
+        <v>930255</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717">
+        <v>930510</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718">
+        <v>931866</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719">
+        <v>932758</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720">
+        <v>934841</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721">
+        <v>935720</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722">
+        <v>935814</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723">
+        <v>936267</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724">
+        <v>937264</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725">
+        <v>939760</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726">
+        <v>941452</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727">
+        <v>941873</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728">
+        <v>943844</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729">
+        <v>944556</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730">
+        <v>946296</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731">
+        <v>947053</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732">
+        <v>948093</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733">
+        <v>948940</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734">
+        <v>949477</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735">
+        <v>949549</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736">
+        <v>951661</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737">
+        <v>951815</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738">
+        <v>952620</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739">
+        <v>953115</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740">
+        <v>953459</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741">
+        <v>953883</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742">
+        <v>954046</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743">
+        <v>956408</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744">
+        <v>957088</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745">
+        <v>957156</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746">
+        <v>957212</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747">
+        <v>957479</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748">
+        <v>957549</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749">
+        <v>957578</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750">
+        <v>957602</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751">
+        <v>957624</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752">
+        <v>957639</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753">
+        <v>957812</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754">
+        <v>957895</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755">
+        <v>957931</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756">
+        <v>957937</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757">
+        <v>957944</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758">
+        <v>957947</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759">
+        <v>957950</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760">
+        <v>958064</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761">
+        <v>958173</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762">
+        <v>958185</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763">
+        <v>958220</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764">
+        <v>958240</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765">
+        <v>958281</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766">
+        <v>958351</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767">
+        <v>958364</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768">
+        <v>958370</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769">
+        <v>958599</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770">
+        <v>958952</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771">
+        <v>958993</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772">
+        <v>959135</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773">
+        <v>959239</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774">
+        <v>959328</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775">
+        <v>959493</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776">
+        <v>959594</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777">
+        <v>959669</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778">
+        <v>959838</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779">
+        <v>959849</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780">
+        <v>959930</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781">
+        <v>959962</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782">
+        <v>960208</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783">
+        <v>960317</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784">
+        <v>960330</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785">
+        <v>960335</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786">
+        <v>960589</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787">
+        <v>960638</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788">
+        <v>960658</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789">
+        <v>960719</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790">
+        <v>960748</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791">
+        <v>961395</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792">
+        <v>961412</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793">
+        <v>961973</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794">
+        <v>962047</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795">
+        <v>962069</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796">
+        <v>962090</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797">
+        <v>962093</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798">
+        <v>962106</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799">
+        <v>962140</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800">
+        <v>962145</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801">
         <v>962148</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802">
+        <v>962361</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803">
+        <v>962365</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804">
+        <v>962429</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805">
+        <v>962474</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806">
+        <v>962498</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807">
+        <v>962772</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808">
+        <v>962788</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809">
+        <v>962796</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1">
+      <c r="A810">
+        <v>962853</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811">
+        <v>963081</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812">
+        <v>963128</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813">
+        <v>963144</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814">
+        <v>963176</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815">
+        <v>963838</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816">
+        <v>963867</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817">
+        <v>963925</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818">
+        <v>964249</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819">
+        <v>964288</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820">
+        <v>964291</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821">
+        <v>964330</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822">
+        <v>964360</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823">
+        <v>964500</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824">
+        <v>964566</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825">
+        <v>964580</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826">
+        <v>964592</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827">
+        <v>964624</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828">
+        <v>964770</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829">
+        <v>964878</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830">
+        <v>964941</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831">
+        <v>964968</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832">
+        <v>964989</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833">
+        <v>965063</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834">
+        <v>965168</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835">
+        <v>965280</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836">
+        <v>965465</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837">
+        <v>965683</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838">
+        <v>965861</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839">
+        <v>966429</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840">
+        <v>966807</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841">
+        <v>967058</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842">
+        <v>967164</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843">
+        <v>967200</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844">
+        <v>967272</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845">
+        <v>967528</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1">
+      <c r="A846">
+        <v>967721</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847">
+        <v>967937</v>
       </c>
     </row>
   </sheetData>

--- a/WS_tags/tag_3151_list.xlsx
+++ b/WS_tags/tag_3151_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A847"/>
+  <dimension ref="A1:A849"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,687 +617,687 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>154395</v>
+        <v>151939</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>177016</v>
+        <v>154395</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>188901</v>
+        <v>177016</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>202073</v>
+        <v>188901</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>202252</v>
+        <v>202073</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>205535</v>
+        <v>202252</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>210037</v>
+        <v>205535</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>214858</v>
+        <v>210037</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>216745</v>
+        <v>214858</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>216789</v>
+        <v>216745</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>216994</v>
+        <v>216789</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>219206</v>
+        <v>216994</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>219952</v>
+        <v>219206</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>224909</v>
+        <v>219952</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>226088</v>
+        <v>224909</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>226226</v>
+        <v>226088</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>227320</v>
+        <v>226226</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>227506</v>
+        <v>227320</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>228684</v>
+        <v>227506</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>229966</v>
+        <v>228684</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>230914</v>
+        <v>229966</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>232453</v>
+        <v>230914</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>232863</v>
+        <v>232453</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>233266</v>
+        <v>232863</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>233361</v>
+        <v>233266</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>233781</v>
+        <v>233361</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>233793</v>
+        <v>233781</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>234636</v>
+        <v>233793</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>235149</v>
+        <v>234636</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>235545</v>
+        <v>235149</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>236055</v>
+        <v>235545</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>236147</v>
+        <v>236055</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>237270</v>
+        <v>236147</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>237820</v>
+        <v>237270</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>238343</v>
+        <v>237820</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>240041</v>
+        <v>238343</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>242539</v>
+        <v>240041</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>242560</v>
+        <v>242539</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>242972</v>
+        <v>242560</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>243021</v>
+        <v>242972</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>243048</v>
+        <v>243021</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>243262</v>
+        <v>243048</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>243729</v>
+        <v>243262</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>245557</v>
+        <v>243729</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>248043</v>
+        <v>245557</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>251634</v>
+        <v>248043</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>252404</v>
+        <v>251634</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>253379</v>
+        <v>252404</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>255504</v>
+        <v>253379</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>257303</v>
+        <v>255504</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>257816</v>
+        <v>257303</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>259339</v>
+        <v>257816</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>259913</v>
+        <v>259339</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>260386</v>
+        <v>259913</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>262378</v>
+        <v>260386</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>264870</v>
+        <v>262378</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>266041</v>
+        <v>264870</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>266658</v>
+        <v>266041</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>266982</v>
+        <v>266658</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>268060</v>
+        <v>266982</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>269937</v>
+        <v>268060</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>271581</v>
+        <v>269937</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>273283</v>
+        <v>271581</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>274026</v>
+        <v>273283</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>274079</v>
+        <v>274026</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>275113</v>
+        <v>274079</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>275748</v>
+        <v>275113</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>276191</v>
+        <v>275748</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>276269</v>
+        <v>276191</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>276502</v>
+        <v>276269</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>276687</v>
+        <v>276502</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>276981</v>
+        <v>276687</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>277544</v>
+        <v>276981</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>278547</v>
+        <v>277544</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>281103</v>
+        <v>278547</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>281757</v>
+        <v>281103</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>281764</v>
+        <v>281757</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>282101</v>
+        <v>281764</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>282390</v>
+        <v>282101</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>283673</v>
+        <v>282390</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>284270</v>
+        <v>283673</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>284555</v>
+        <v>284270</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>286265</v>
+        <v>284555</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>288078</v>
+        <v>286265</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>292617</v>
+        <v>288078</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>293504</v>
+        <v>292617</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>293695</v>
+        <v>293504</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>293798</v>
+        <v>293695</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>295480</v>
+        <v>293798</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>295737</v>
+        <v>295480</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>297758</v>
+        <v>295737</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>299408</v>
+        <v>297758</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>299531</v>
+        <v>299408</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>301023</v>
+        <v>299531</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>304014</v>
+        <v>301023</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>304879</v>
+        <v>304014</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>306704</v>
+        <v>304879</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>306807</v>
+        <v>306704</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>306808</v>
+        <v>306807</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>306842</v>
+        <v>306808</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>307011</v>
+        <v>306842</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>307031</v>
+        <v>307011</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>308053</v>
+        <v>307031</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>308129</v>
+        <v>308053</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>308439</v>
+        <v>308129</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>309457</v>
+        <v>308439</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>312050</v>
+        <v>309457</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>316867</v>
+        <v>312050</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>317463</v>
+        <v>316867</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>321152</v>
+        <v>317463</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>323042</v>
+        <v>321152</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>325104</v>
+        <v>323042</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>325285</v>
+        <v>325104</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>327621</v>
+        <v>325285</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>328346</v>
+        <v>327621</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>329676</v>
+        <v>328346</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>329710</v>
+        <v>329676</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>329843</v>
+        <v>329710</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>330186</v>
+        <v>329843</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>330533</v>
+        <v>330186</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>330721</v>
+        <v>330533</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>331781</v>
+        <v>330721</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>332586</v>
+        <v>331781</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>333242</v>
+        <v>332586</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>333327</v>
+        <v>333242</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>334823</v>
+        <v>333327</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>335117</v>
+        <v>334823</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>335425</v>
+        <v>335117</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>336371</v>
+        <v>335425</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>336558</v>
+        <v>336371</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>338125</v>
+        <v>336558</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>338207</v>
+        <v>338125</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>340664</v>
+        <v>338207</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>342050</v>
+        <v>340664</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>342755</v>
+        <v>342050</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>342849</v>
+        <v>342755</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>343261</v>
+        <v>342849</v>
       </c>
     </row>
     <row r="185" spans="1:1">
@@ -1517,1172 +1517,1172 @@
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>363722</v>
+        <v>362321</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>365436</v>
+        <v>363722</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>365913</v>
+        <v>365436</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>366642</v>
+        <v>365913</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>366828</v>
+        <v>366642</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>366998</v>
+        <v>366828</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>367961</v>
+        <v>366998</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>368265</v>
+        <v>367961</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>369457</v>
+        <v>368265</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>369552</v>
+        <v>369457</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>370264</v>
+        <v>369552</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>372499</v>
+        <v>370264</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>372786</v>
+        <v>372499</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>373829</v>
+        <v>372786</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>373957</v>
+        <v>373829</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>374584</v>
+        <v>373957</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>374628</v>
+        <v>374584</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>375230</v>
+        <v>374628</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>375503</v>
+        <v>375230</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>375626</v>
+        <v>375263</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>375697</v>
+        <v>375503</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>375936</v>
+        <v>375626</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>375983</v>
+        <v>375697</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>376340</v>
+        <v>375936</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>376660</v>
+        <v>375983</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>377884</v>
+        <v>376340</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>379165</v>
+        <v>376660</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>380095</v>
+        <v>377884</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>380456</v>
+        <v>379165</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>381505</v>
+        <v>380095</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>381547</v>
+        <v>380456</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>381611</v>
+        <v>381505</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>381849</v>
+        <v>381547</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>382069</v>
+        <v>381611</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>382302</v>
+        <v>381849</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>382775</v>
+        <v>382069</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>384187</v>
+        <v>382302</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>384286</v>
+        <v>382775</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>384493</v>
+        <v>384187</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>384836</v>
+        <v>384286</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>384962</v>
+        <v>384493</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>385226</v>
+        <v>384836</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>389398</v>
+        <v>384962</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>389723</v>
+        <v>385226</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>390745</v>
+        <v>389398</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>390829</v>
+        <v>389723</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>391039</v>
+        <v>390745</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>392065</v>
+        <v>390829</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>392190</v>
+        <v>391039</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>395005</v>
+        <v>392065</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>395456</v>
+        <v>392190</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>395564</v>
+        <v>395005</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>397605</v>
+        <v>395456</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>397693</v>
+        <v>395564</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>398605</v>
+        <v>397605</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>398945</v>
+        <v>397693</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>398978</v>
+        <v>398605</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>399013</v>
+        <v>398945</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>399087</v>
+        <v>398978</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>399334</v>
+        <v>399013</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>400649</v>
+        <v>399087</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>400671</v>
+        <v>399334</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>400883</v>
+        <v>400649</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>402145</v>
+        <v>400671</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>403030</v>
+        <v>400883</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>404164</v>
+        <v>402145</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>404766</v>
+        <v>403030</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>404897</v>
+        <v>404164</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>405156</v>
+        <v>404766</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>406049</v>
+        <v>404897</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>406087</v>
+        <v>405156</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>407083</v>
+        <v>406049</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>407496</v>
+        <v>406087</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>408198</v>
+        <v>407083</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>408433</v>
+        <v>407496</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>408560</v>
+        <v>408198</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>408731</v>
+        <v>408433</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>409257</v>
+        <v>408560</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>410358</v>
+        <v>408731</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>410414</v>
+        <v>409257</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>410710</v>
+        <v>410358</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>411231</v>
+        <v>410414</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>411313</v>
+        <v>410710</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>412414</v>
+        <v>411231</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>412451</v>
+        <v>411313</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>412529</v>
+        <v>412414</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>413236</v>
+        <v>412451</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>413239</v>
+        <v>412529</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>413524</v>
+        <v>413236</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>413593</v>
+        <v>413239</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>413709</v>
+        <v>413524</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>413974</v>
+        <v>413593</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>414652</v>
+        <v>413709</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>414756</v>
+        <v>413974</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>416748</v>
+        <v>414652</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>417356</v>
+        <v>414756</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>417645</v>
+        <v>416748</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>418803</v>
+        <v>417356</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>421421</v>
+        <v>417645</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>421719</v>
+        <v>418803</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>422155</v>
+        <v>421421</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>422351</v>
+        <v>421719</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>422798</v>
+        <v>422155</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>424767</v>
+        <v>422351</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>426138</v>
+        <v>422798</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>426241</v>
+        <v>424767</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>429060</v>
+        <v>426138</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>429082</v>
+        <v>426241</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>429490</v>
+        <v>429060</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>432261</v>
+        <v>429082</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>432368</v>
+        <v>429490</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>432672</v>
+        <v>432261</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>434870</v>
+        <v>432368</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>435070</v>
+        <v>432672</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>435491</v>
+        <v>434870</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>436065</v>
+        <v>435070</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>436335</v>
+        <v>435491</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>437481</v>
+        <v>436065</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>437723</v>
+        <v>436335</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>437731</v>
+        <v>437481</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>439387</v>
+        <v>437731</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>439835</v>
+        <v>439387</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>440320</v>
+        <v>439835</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>440981</v>
+        <v>440320</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>441352</v>
+        <v>440981</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>441573</v>
+        <v>441352</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>442166</v>
+        <v>441573</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>442906</v>
+        <v>442166</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>445922</v>
+        <v>442906</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>446630</v>
+        <v>445922</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>446833</v>
+        <v>446630</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>447252</v>
+        <v>446833</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>447596</v>
+        <v>447252</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>451001</v>
+        <v>447596</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>451213</v>
+        <v>451001</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>452541</v>
+        <v>451213</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>452904</v>
+        <v>452541</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>455717</v>
+        <v>452904</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>456023</v>
+        <v>455717</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>458445</v>
+        <v>456023</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>462417</v>
+        <v>458445</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>463406</v>
+        <v>462417</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>463494</v>
+        <v>463406</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>463920</v>
+        <v>463494</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>465422</v>
+        <v>463920</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>465755</v>
+        <v>465422</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>466057</v>
+        <v>465755</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>466982</v>
+        <v>466057</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>468083</v>
+        <v>466982</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>468559</v>
+        <v>468083</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>468803</v>
+        <v>468559</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>469137</v>
+        <v>468803</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>471225</v>
+        <v>469137</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>472002</v>
+        <v>471225</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>473106</v>
+        <v>472002</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>473371</v>
+        <v>473106</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>474038</v>
+        <v>473371</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>474980</v>
+        <v>473399</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>477095</v>
+        <v>474038</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>477344</v>
+        <v>474980</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>477723</v>
+        <v>477095</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>478331</v>
+        <v>477344</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>479750</v>
+        <v>477723</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>480663</v>
+        <v>478331</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>481592</v>
+        <v>479750</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>481925</v>
+        <v>480663</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>482049</v>
+        <v>481592</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>482101</v>
+        <v>481925</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>482130</v>
+        <v>482049</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>483759</v>
+        <v>482101</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>486045</v>
+        <v>482130</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>486404</v>
+        <v>483549</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>487091</v>
+        <v>483759</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>488565</v>
+        <v>486045</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>489026</v>
+        <v>486404</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>489398</v>
+        <v>487091</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>489691</v>
+        <v>488565</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>489946</v>
+        <v>489026</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>490691</v>
+        <v>489398</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>491592</v>
+        <v>489691</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>491972</v>
+        <v>489946</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>491988</v>
+        <v>490691</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>492278</v>
+        <v>491592</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>492411</v>
+        <v>491972</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>494566</v>
+        <v>491988</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>494771</v>
+        <v>492278</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>495013</v>
+        <v>492411</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>495034</v>
+        <v>494566</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>495592</v>
+        <v>494771</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>495862</v>
+        <v>495013</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>496117</v>
+        <v>495034</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>497049</v>
+        <v>495592</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>497379</v>
+        <v>495862</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>497861</v>
+        <v>496117</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>499013</v>
+        <v>497049</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>499236</v>
+        <v>497379</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>504155</v>
+        <v>497861</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>505566</v>
+        <v>499013</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>506325</v>
+        <v>499236</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>509160</v>
+        <v>504155</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>509425</v>
+        <v>505566</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>509819</v>
+        <v>506325</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>511445</v>
+        <v>509160</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>511824</v>
+        <v>509425</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>513412</v>
+        <v>509819</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>513453</v>
+        <v>511445</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>514930</v>
+        <v>511824</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>515709</v>
+        <v>513412</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>517615</v>
+        <v>513453</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>518872</v>
+        <v>514930</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>519352</v>
+        <v>515709</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>519618</v>
+        <v>517615</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>520730</v>
+        <v>518872</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>520847</v>
+        <v>519352</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>521978</v>
+        <v>519618</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>523177</v>
+        <v>520730</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>523591</v>
+        <v>520847</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>524022</v>
+        <v>521978</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>525729</v>
+        <v>523177</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>526057</v>
+        <v>523591</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>528276</v>
+        <v>524022</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>529071</v>
+        <v>526057</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>529335</v>
+        <v>528276</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>530702</v>
+        <v>529335</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>532304</v>
+        <v>530702</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>536689</v>
+        <v>532304</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>539161</v>
+        <v>536689</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>540495</v>
+        <v>539161</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>542012</v>
+        <v>540495</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>542172</v>
+        <v>542012</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>542617</v>
+        <v>542172</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>543581</v>
+        <v>542617</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>544476</v>
+        <v>543581</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>544565</v>
+        <v>544476</v>
       </c>
     </row>
     <row r="462" spans="1:1">
@@ -2702,1916 +2702,1926 @@
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>548627</v>
+        <v>547684</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>550085</v>
+        <v>548627</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>551134</v>
+        <v>550085</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>551220</v>
+        <v>551117</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>553946</v>
+        <v>551134</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>554545</v>
+        <v>551220</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>555814</v>
+        <v>553946</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>557888</v>
+        <v>554545</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>558748</v>
+        <v>555814</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>558758</v>
+        <v>557888</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>559669</v>
+        <v>558748</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>559941</v>
+        <v>558758</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>561139</v>
+        <v>559669</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>561142</v>
+        <v>559941</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>561437</v>
+        <v>561139</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>561781</v>
+        <v>561142</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>561883</v>
+        <v>561437</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>562742</v>
+        <v>561781</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>563194</v>
+        <v>562742</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>565081</v>
+        <v>563194</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>567194</v>
+        <v>565081</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>568285</v>
+        <v>567194</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>568520</v>
+        <v>568285</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>572996</v>
+        <v>568520</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>573222</v>
+        <v>572996</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>574048</v>
+        <v>573222</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>574084</v>
+        <v>574048</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>574195</v>
+        <v>574084</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>574730</v>
+        <v>574195</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>576373</v>
+        <v>574730</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>576465</v>
+        <v>576373</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>580029</v>
+        <v>576465</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>584438</v>
+        <v>580029</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>584458</v>
+        <v>584438</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>585338</v>
+        <v>584458</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>585494</v>
+        <v>585338</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>585919</v>
+        <v>585494</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>589195</v>
+        <v>585919</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>590458</v>
+        <v>589195</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>591057</v>
+        <v>590458</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>591293</v>
+        <v>591057</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>592963</v>
+        <v>591293</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>593209</v>
+        <v>592963</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>593506</v>
+        <v>593209</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>595719</v>
+        <v>593506</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>595815</v>
+        <v>595719</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>596069</v>
+        <v>595815</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>598262</v>
+        <v>596069</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>600059</v>
+        <v>598262</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>600296</v>
+        <v>600059</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>601691</v>
+        <v>600296</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>614343</v>
+        <v>601691</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>614344</v>
+        <v>614343</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>614747</v>
+        <v>614344</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>616896</v>
+        <v>614747</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>617909</v>
+        <v>616896</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>618661</v>
+        <v>617909</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>619831</v>
+        <v>618661</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>623929</v>
+        <v>619831</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>624743</v>
+        <v>623929</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>627163</v>
+        <v>624743</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>628469</v>
+        <v>627163</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>630131</v>
+        <v>628469</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>631058</v>
+        <v>630131</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>634270</v>
+        <v>631058</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>634365</v>
+        <v>634270</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>635335</v>
+        <v>634365</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>635550</v>
+        <v>635335</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>635818</v>
+        <v>635550</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>636178</v>
+        <v>635818</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>636806</v>
+        <v>636178</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>637115</v>
+        <v>636806</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>637424</v>
+        <v>637115</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>640062</v>
+        <v>637424</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>641609</v>
+        <v>640062</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>643749</v>
+        <v>641609</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>644203</v>
+        <v>643749</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>644475</v>
+        <v>644203</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>647990</v>
+        <v>644475</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>649581</v>
+        <v>647990</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>651428</v>
+        <v>649581</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>653377</v>
+        <v>651428</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>654018</v>
+        <v>653377</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>654136</v>
+        <v>654018</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>656376</v>
+        <v>654136</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>656889</v>
+        <v>656376</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>657601</v>
+        <v>656889</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>659258</v>
+        <v>657601</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>660147</v>
+        <v>659258</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>660588</v>
+        <v>660147</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>661111</v>
+        <v>660588</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>661749</v>
+        <v>661111</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>662855</v>
+        <v>661749</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>663211</v>
+        <v>662855</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>664573</v>
+        <v>663211</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>664664</v>
+        <v>664573</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>667340</v>
+        <v>664664</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>669808</v>
+        <v>667340</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>670156</v>
+        <v>669808</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>671531</v>
+        <v>670156</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>673667</v>
+        <v>671531</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>674011</v>
+        <v>671674</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>674372</v>
+        <v>673667</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>674374</v>
+        <v>674011</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>677403</v>
+        <v>674372</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>681257</v>
+        <v>674374</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>681842</v>
+        <v>677403</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>681983</v>
+        <v>681257</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>682586</v>
+        <v>681842</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>682948</v>
+        <v>681983</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>683281</v>
+        <v>682586</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>684456</v>
+        <v>682948</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>684620</v>
+        <v>683281</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>685790</v>
+        <v>684456</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>686158</v>
+        <v>684620</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>691808</v>
+        <v>685790</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>692748</v>
+        <v>686158</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>692783</v>
+        <v>691808</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>693866</v>
+        <v>692748</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>695558</v>
+        <v>692783</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>696620</v>
+        <v>693866</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>697056</v>
+        <v>695558</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>697739</v>
+        <v>696620</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>698438</v>
+        <v>697056</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>700156</v>
+        <v>697739</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>700700</v>
+        <v>698438</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>701947</v>
+        <v>700156</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>704473</v>
+        <v>700700</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>706127</v>
+        <v>701947</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>707679</v>
+        <v>704473</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>709484</v>
+        <v>706127</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>710442</v>
+        <v>707679</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>711454</v>
+        <v>709484</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>712251</v>
+        <v>710442</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>715069</v>
+        <v>711454</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>715655</v>
+        <v>712251</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>717031</v>
+        <v>715069</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>718028</v>
+        <v>715655</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>718053</v>
+        <v>717031</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>720288</v>
+        <v>718028</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>720938</v>
+        <v>720288</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>721639</v>
+        <v>720938</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>723097</v>
+        <v>721639</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>723355</v>
+        <v>723097</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>724497</v>
+        <v>723355</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>724761</v>
+        <v>724497</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>727555</v>
+        <v>724761</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>729850</v>
+        <v>727555</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>730360</v>
+        <v>729850</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>730620</v>
+        <v>730360</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>730739</v>
+        <v>730620</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>731725</v>
+        <v>730739</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>732994</v>
+        <v>731725</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>733709</v>
+        <v>732994</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>734594</v>
+        <v>733709</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>735046</v>
+        <v>734594</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>735240</v>
+        <v>735046</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>735664</v>
+        <v>735240</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>737312</v>
+        <v>735664</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>737640</v>
+        <v>737312</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>738051</v>
+        <v>737640</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>741414</v>
+        <v>738051</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>741421</v>
+        <v>741414</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>741430</v>
+        <v>741421</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>742574</v>
+        <v>741430</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>742581</v>
+        <v>742574</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>743604</v>
+        <v>742581</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>743762</v>
+        <v>743604</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>744056</v>
+        <v>743762</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>744195</v>
+        <v>744056</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>745510</v>
+        <v>744195</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>746527</v>
+        <v>745510</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>747709</v>
+        <v>746527</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>747982</v>
+        <v>747709</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>753610</v>
+        <v>747982</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>756394</v>
+        <v>753610</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>756999</v>
+        <v>756394</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>758759</v>
+        <v>756999</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>760756</v>
+        <v>758759</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>763250</v>
+        <v>760756</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>765034</v>
+        <v>763250</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>766292</v>
+        <v>765034</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>766450</v>
+        <v>766292</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>766572</v>
+        <v>766450</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>767388</v>
+        <v>766572</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>769229</v>
+        <v>767388</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>770123</v>
+        <v>769229</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>770132</v>
+        <v>770123</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>770837</v>
+        <v>770132</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>772304</v>
+        <v>770837</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>773379</v>
+        <v>772304</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>773412</v>
+        <v>773379</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>773883</v>
+        <v>773412</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>774540</v>
+        <v>773883</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>775024</v>
+        <v>774540</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>776301</v>
+        <v>775024</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>776603</v>
+        <v>776301</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>778547</v>
+        <v>776603</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>779704</v>
+        <v>778547</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>781538</v>
+        <v>779704</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>782560</v>
+        <v>781538</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>783712</v>
+        <v>782560</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>785358</v>
+        <v>783712</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>785366</v>
+        <v>785358</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>785553</v>
+        <v>785366</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>785592</v>
+        <v>785553</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>790045</v>
+        <v>785592</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>790235</v>
+        <v>790045</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>791672</v>
+        <v>790235</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>792283</v>
+        <v>791672</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>798233</v>
+        <v>792283</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>816669</v>
+        <v>798233</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>849338</v>
+        <v>816669</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>850822</v>
+        <v>849338</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>852611</v>
+        <v>850822</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>853281</v>
+        <v>852611</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>854249</v>
+        <v>853281</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>855262</v>
+        <v>854249</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>862437</v>
+        <v>855262</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>862594</v>
+        <v>862437</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>863545</v>
+        <v>862594</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>864774</v>
+        <v>863545</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>865475</v>
+        <v>864774</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>867814</v>
+        <v>865475</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>868914</v>
+        <v>867814</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>871051</v>
+        <v>868914</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>872017</v>
+        <v>871051</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>872799</v>
+        <v>872017</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>873207</v>
+        <v>872799</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>873359</v>
+        <v>873207</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>873360</v>
+        <v>873359</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>873681</v>
+        <v>873360</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>874816</v>
+        <v>873681</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>877164</v>
+        <v>874816</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>877972</v>
+        <v>877164</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>878196</v>
+        <v>877972</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>879270</v>
+        <v>878196</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>879857</v>
+        <v>879270</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>880085</v>
+        <v>879857</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>884531</v>
+        <v>880085</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>885400</v>
+        <v>884531</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>885433</v>
+        <v>885400</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>900539</v>
+        <v>885433</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>907023</v>
+        <v>900539</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>907500</v>
+        <v>907023</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>909829</v>
+        <v>907500</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>915294</v>
+        <v>909829</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>916251</v>
+        <v>915294</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>917258</v>
+        <v>916251</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>919598</v>
+        <v>917258</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>921057</v>
+        <v>919598</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>930255</v>
+        <v>921057</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>930510</v>
+        <v>930255</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>931866</v>
+        <v>930510</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>932758</v>
+        <v>931866</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>934841</v>
+        <v>932758</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>935720</v>
+        <v>934841</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>935814</v>
+        <v>935720</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>936267</v>
+        <v>935814</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>937264</v>
+        <v>936267</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>939760</v>
+        <v>937264</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>941452</v>
+        <v>939760</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>941873</v>
+        <v>941452</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>943844</v>
+        <v>941873</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>944556</v>
+        <v>943844</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>946296</v>
+        <v>944367</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>947053</v>
+        <v>944556</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>948093</v>
+        <v>946296</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>948940</v>
+        <v>947053</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>949477</v>
+        <v>948093</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>949549</v>
+        <v>948940</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>951661</v>
+        <v>949477</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>951815</v>
+        <v>949549</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>952620</v>
+        <v>951661</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>953115</v>
+        <v>951815</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>953459</v>
+        <v>952620</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>953883</v>
+        <v>953115</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>954046</v>
+        <v>953459</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>956408</v>
+        <v>953883</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>957088</v>
+        <v>954046</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>957156</v>
+        <v>956408</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>957212</v>
+        <v>957088</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>957479</v>
+        <v>957156</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>957549</v>
+        <v>957212</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>957578</v>
+        <v>957479</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>957602</v>
+        <v>957549</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>957624</v>
+        <v>957578</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>957639</v>
+        <v>957602</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>957812</v>
+        <v>957624</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>957895</v>
+        <v>957639</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>957931</v>
+        <v>957812</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>957937</v>
+        <v>957895</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>957944</v>
+        <v>957931</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>957947</v>
+        <v>957937</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>957950</v>
+        <v>957944</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>958064</v>
+        <v>957947</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>958173</v>
+        <v>957950</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>958185</v>
+        <v>958064</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>958220</v>
+        <v>958173</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>958240</v>
+        <v>958185</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>958281</v>
+        <v>958220</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>958351</v>
+        <v>958240</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>958364</v>
+        <v>958281</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>958370</v>
+        <v>958351</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>958599</v>
+        <v>958364</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>958952</v>
+        <v>958370</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>958993</v>
+        <v>958599</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>959135</v>
+        <v>958952</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>959239</v>
+        <v>958993</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>959328</v>
+        <v>959135</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>959493</v>
+        <v>959239</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>959594</v>
+        <v>959328</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>959669</v>
+        <v>959493</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>959838</v>
+        <v>959594</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>959849</v>
+        <v>959669</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>959930</v>
+        <v>959838</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>959962</v>
+        <v>959849</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>960208</v>
+        <v>959930</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>960317</v>
+        <v>959962</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>960330</v>
+        <v>960208</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>960335</v>
+        <v>960317</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>960589</v>
+        <v>960330</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>960638</v>
+        <v>960335</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>960658</v>
+        <v>960589</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>960719</v>
+        <v>960638</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>960748</v>
+        <v>960658</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>961395</v>
+        <v>960719</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>961412</v>
+        <v>960748</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>961973</v>
+        <v>961395</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>962047</v>
+        <v>961412</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>962069</v>
+        <v>961973</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>962090</v>
+        <v>962047</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>962093</v>
+        <v>962069</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>962106</v>
+        <v>962090</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>962140</v>
+        <v>962093</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>962145</v>
+        <v>962106</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>962148</v>
+        <v>962140</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>962361</v>
+        <v>962145</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>962365</v>
+        <v>962148</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>962429</v>
+        <v>962361</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>962474</v>
+        <v>962365</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>962498</v>
+        <v>962429</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>962772</v>
+        <v>962474</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>962788</v>
+        <v>962498</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>962796</v>
+        <v>962772</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>962853</v>
+        <v>962788</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>963081</v>
+        <v>962796</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>963128</v>
+        <v>962853</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>963144</v>
+        <v>963081</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>963176</v>
+        <v>963128</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>963838</v>
+        <v>963144</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>963867</v>
+        <v>963176</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>963925</v>
+        <v>963838</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>964249</v>
+        <v>963867</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>964288</v>
+        <v>963925</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>964291</v>
+        <v>964249</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>964330</v>
+        <v>964288</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>964360</v>
+        <v>964291</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>964500</v>
+        <v>964330</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>964566</v>
+        <v>964360</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>964580</v>
+        <v>964500</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>964592</v>
+        <v>964566</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>964624</v>
+        <v>964580</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>964770</v>
+        <v>964592</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>964878</v>
+        <v>964624</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>964941</v>
+        <v>964770</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831">
-        <v>964968</v>
+        <v>964878</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>964989</v>
+        <v>964941</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>965063</v>
+        <v>964968</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>965168</v>
+        <v>964989</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>965280</v>
+        <v>965063</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836">
-        <v>965465</v>
+        <v>965168</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>965683</v>
+        <v>965280</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838">
-        <v>965861</v>
+        <v>965465</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>966429</v>
+        <v>965683</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840">
-        <v>966807</v>
+        <v>965861</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>967058</v>
+        <v>966429</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>967164</v>
+        <v>966807</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843">
-        <v>967200</v>
+        <v>967058</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844">
-        <v>967272</v>
+        <v>967164</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845">
-        <v>967528</v>
+        <v>967200</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846">
-        <v>967721</v>
+        <v>967272</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847">
+        <v>967528</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848">
+        <v>967721</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849">
         <v>967937</v>
       </c>
     </row>

--- a/WS_tags/tag_3151_list.xlsx
+++ b/WS_tags/tag_3151_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A849"/>
+  <dimension ref="A1:A878"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,4222 +407,4367 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>40253</v>
+        <v>32645</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>42739</v>
+        <v>40253</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>46951</v>
+        <v>42739</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>57243</v>
+        <v>46951</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>57964</v>
+        <v>57243</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>58007</v>
+        <v>57964</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>71430</v>
+        <v>58007</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>71555</v>
+        <v>71430</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>71958</v>
+        <v>71555</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>73640</v>
+        <v>71958</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>75656</v>
+        <v>73640</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>77593</v>
+        <v>75656</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>81090</v>
+        <v>77593</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>84177</v>
+        <v>81090</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>89738</v>
+        <v>84177</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>90505</v>
+        <v>89738</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>90837</v>
+        <v>90505</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>91207</v>
+        <v>90837</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>91305</v>
+        <v>91207</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>91489</v>
+        <v>91305</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>91758</v>
+        <v>91489</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>92163</v>
+        <v>91758</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>92893</v>
+        <v>92163</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>93564</v>
+        <v>92893</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>93819</v>
+        <v>93564</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>109509</v>
+        <v>93819</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>119317</v>
+        <v>109509</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>119570</v>
+        <v>119317</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>119804</v>
+        <v>119570</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>120221</v>
+        <v>119804</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>120659</v>
+        <v>120221</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>122692</v>
+        <v>120659</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>122769</v>
+        <v>122692</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>123662</v>
+        <v>122769</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>126062</v>
+        <v>123662</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>126810</v>
+        <v>126062</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>127728</v>
+        <v>126810</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>130653</v>
+        <v>127728</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>131420</v>
+        <v>130653</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>131836</v>
+        <v>131420</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>133865</v>
+        <v>131836</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>134367</v>
+        <v>133865</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>151939</v>
+        <v>134367</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>154395</v>
+        <v>151939</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>177016</v>
+        <v>154395</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>188901</v>
+        <v>177016</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>202073</v>
+        <v>188901</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>202252</v>
+        <v>202073</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>205535</v>
+        <v>202252</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>210037</v>
+        <v>205535</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>214858</v>
+        <v>210037</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>216745</v>
+        <v>214858</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>216789</v>
+        <v>216745</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>216994</v>
+        <v>216789</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>219206</v>
+        <v>216994</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>219952</v>
+        <v>219206</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>224909</v>
+        <v>219952</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>226088</v>
+        <v>221087</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>226226</v>
+        <v>224909</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>227320</v>
+        <v>226088</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>227506</v>
+        <v>226226</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>228684</v>
+        <v>227320</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>229966</v>
+        <v>227506</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>230914</v>
+        <v>228684</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>232453</v>
+        <v>229966</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>232863</v>
+        <v>230914</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>233266</v>
+        <v>232453</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>233361</v>
+        <v>232863</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>233781</v>
+        <v>233067</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>233793</v>
+        <v>233266</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>234636</v>
+        <v>233361</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>235149</v>
+        <v>233364</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>235545</v>
+        <v>233781</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>236055</v>
+        <v>233793</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>236147</v>
+        <v>234636</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>237270</v>
+        <v>235149</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>237820</v>
+        <v>235545</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>238343</v>
+        <v>236055</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>240041</v>
+        <v>236147</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>242539</v>
+        <v>237270</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>242560</v>
+        <v>237820</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>242972</v>
+        <v>238343</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>243021</v>
+        <v>240041</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>243048</v>
+        <v>242335</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>243262</v>
+        <v>242539</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>243729</v>
+        <v>242560</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>245557</v>
+        <v>242972</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>248043</v>
+        <v>243021</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>251634</v>
+        <v>243048</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>252404</v>
+        <v>243262</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>253379</v>
+        <v>243729</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>255504</v>
+        <v>245557</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>257303</v>
+        <v>248043</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>257816</v>
+        <v>251634</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>259339</v>
+        <v>252393</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>259913</v>
+        <v>252404</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>260386</v>
+        <v>253379</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>262378</v>
+        <v>253405</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>264870</v>
+        <v>255504</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>266041</v>
+        <v>257303</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>266658</v>
+        <v>257816</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>266982</v>
+        <v>259339</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>268060</v>
+        <v>259913</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>269937</v>
+        <v>260386</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>271581</v>
+        <v>262378</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>273283</v>
+        <v>264870</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>274026</v>
+        <v>266041</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>274079</v>
+        <v>266658</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>275113</v>
+        <v>266982</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>275748</v>
+        <v>268060</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>276191</v>
+        <v>269937</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>276269</v>
+        <v>271581</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>276502</v>
+        <v>273283</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>276687</v>
+        <v>274026</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>276981</v>
+        <v>274079</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>277544</v>
+        <v>275748</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>278547</v>
+        <v>276191</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>281103</v>
+        <v>276269</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>281757</v>
+        <v>276502</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>281764</v>
+        <v>276687</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>282101</v>
+        <v>276981</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>282390</v>
+        <v>277544</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>283673</v>
+        <v>278547</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>284270</v>
+        <v>281103</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>284555</v>
+        <v>281757</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>286265</v>
+        <v>281764</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>288078</v>
+        <v>282101</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>292617</v>
+        <v>282390</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>293504</v>
+        <v>283673</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>293695</v>
+        <v>284270</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>293798</v>
+        <v>284555</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>295480</v>
+        <v>286265</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>295737</v>
+        <v>288078</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>297758</v>
+        <v>289308</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>299408</v>
+        <v>291583</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>299531</v>
+        <v>293504</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>301023</v>
+        <v>293798</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>304014</v>
+        <v>295480</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>304879</v>
+        <v>295737</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>306704</v>
+        <v>297758</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>306807</v>
+        <v>299408</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>306808</v>
+        <v>299531</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>306842</v>
+        <v>300354</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>307011</v>
+        <v>301023</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>307031</v>
+        <v>304014</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>308053</v>
+        <v>304879</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>308129</v>
+        <v>306704</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>308439</v>
+        <v>306807</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>309457</v>
+        <v>306808</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>312050</v>
+        <v>306842</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>316867</v>
+        <v>307031</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>317463</v>
+        <v>308053</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>321152</v>
+        <v>308129</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>323042</v>
+        <v>308439</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>325104</v>
+        <v>309457</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>325285</v>
+        <v>312050</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>327621</v>
+        <v>316867</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>328346</v>
+        <v>317463</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>329676</v>
+        <v>318977</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>329710</v>
+        <v>321152</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>329843</v>
+        <v>323042</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>330186</v>
+        <v>324300</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>330533</v>
+        <v>325104</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>330721</v>
+        <v>325285</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>331781</v>
+        <v>327621</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>332586</v>
+        <v>328346</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>333242</v>
+        <v>329676</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>333327</v>
+        <v>329710</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>334823</v>
+        <v>329843</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>335117</v>
+        <v>330186</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>335425</v>
+        <v>330533</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>336371</v>
+        <v>330721</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>336558</v>
+        <v>331781</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>338125</v>
+        <v>332586</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>338207</v>
+        <v>333242</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>340664</v>
+        <v>333327</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>342050</v>
+        <v>334823</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>342755</v>
+        <v>335117</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>342849</v>
+        <v>335425</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>343565</v>
+        <v>336371</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>343590</v>
+        <v>336558</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>344185</v>
+        <v>338125</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>344679</v>
+        <v>338207</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>344707</v>
+        <v>339439</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>345038</v>
+        <v>340624</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>345300</v>
+        <v>340664</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>346457</v>
+        <v>342755</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>346767</v>
+        <v>342849</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>346844</v>
+        <v>343121</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>346884</v>
+        <v>343249</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>347222</v>
+        <v>343565</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>347315</v>
+        <v>343590</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>347991</v>
+        <v>344185</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>351808</v>
+        <v>344614</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>352359</v>
+        <v>344679</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>352433</v>
+        <v>344707</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>352600</v>
+        <v>345038</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>353032</v>
+        <v>345300</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>353290</v>
+        <v>346457</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>353336</v>
+        <v>346767</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>354313</v>
+        <v>346844</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>355598</v>
+        <v>347222</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>355640</v>
+        <v>347315</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>356222</v>
+        <v>347991</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>356730</v>
+        <v>348714</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>357953</v>
+        <v>351808</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>358134</v>
+        <v>352359</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>358243</v>
+        <v>352433</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>358985</v>
+        <v>352600</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>359057</v>
+        <v>353032</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>359077</v>
+        <v>353290</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>359220</v>
+        <v>353336</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>359594</v>
+        <v>354313</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>359765</v>
+        <v>355598</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>360021</v>
+        <v>355640</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>360085</v>
+        <v>356133</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>360665</v>
+        <v>356222</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>360736</v>
+        <v>356730</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>360794</v>
+        <v>357953</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>360943</v>
+        <v>358243</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>361824</v>
+        <v>359057</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>362086</v>
+        <v>359077</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>362321</v>
+        <v>359220</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>363722</v>
+        <v>359594</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>365436</v>
+        <v>359765</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>365913</v>
+        <v>360021</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>366642</v>
+        <v>360085</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>366828</v>
+        <v>360665</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>366998</v>
+        <v>360794</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>367961</v>
+        <v>360943</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>368265</v>
+        <v>361824</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>369457</v>
+        <v>362086</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>369552</v>
+        <v>362321</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>370264</v>
+        <v>363722</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>372499</v>
+        <v>365436</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>372786</v>
+        <v>365913</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>373829</v>
+        <v>366828</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>373957</v>
+        <v>366998</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>374584</v>
+        <v>367961</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>374628</v>
+        <v>368265</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>375230</v>
+        <v>369552</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>375263</v>
+        <v>369771</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>375503</v>
+        <v>370264</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>375626</v>
+        <v>370645</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>375697</v>
+        <v>372499</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>375936</v>
+        <v>372786</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>375983</v>
+        <v>373829</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>376340</v>
+        <v>373850</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>376660</v>
+        <v>373957</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>377884</v>
+        <v>374544</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>379165</v>
+        <v>374584</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>380095</v>
+        <v>374628</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>380456</v>
+        <v>375230</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>381505</v>
+        <v>375263</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>381547</v>
+        <v>375503</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>381611</v>
+        <v>375697</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>381849</v>
+        <v>375936</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>382069</v>
+        <v>376061</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>382302</v>
+        <v>376340</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>382775</v>
+        <v>376660</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>384187</v>
+        <v>377436</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>384286</v>
+        <v>377884</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>384493</v>
+        <v>379165</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>384836</v>
+        <v>380095</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>384962</v>
+        <v>380456</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>385226</v>
+        <v>380579</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>389398</v>
+        <v>381505</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>389723</v>
+        <v>381849</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>390745</v>
+        <v>382775</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>390829</v>
+        <v>384187</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>391039</v>
+        <v>384286</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>392065</v>
+        <v>384836</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>392190</v>
+        <v>384962</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>395005</v>
+        <v>385226</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>395456</v>
+        <v>389398</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>395564</v>
+        <v>389723</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>397605</v>
+        <v>390745</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>397693</v>
+        <v>390829</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>398605</v>
+        <v>391039</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>398945</v>
+        <v>392065</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>398978</v>
+        <v>392190</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>399013</v>
+        <v>394412</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>399087</v>
+        <v>395005</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>399334</v>
+        <v>395456</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>400649</v>
+        <v>395564</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>400671</v>
+        <v>397605</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>400883</v>
+        <v>397693</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>402145</v>
+        <v>398605</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>403030</v>
+        <v>398945</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>404164</v>
+        <v>398978</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>404766</v>
+        <v>399013</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>404897</v>
+        <v>399087</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>405156</v>
+        <v>399334</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>406049</v>
+        <v>400649</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>406087</v>
+        <v>400671</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>407083</v>
+        <v>400883</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>407496</v>
+        <v>402145</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>408198</v>
+        <v>402957</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>408433</v>
+        <v>403030</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>408560</v>
+        <v>404164</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>408731</v>
+        <v>404766</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>409257</v>
+        <v>404897</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>410358</v>
+        <v>405156</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>410414</v>
+        <v>406049</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>410710</v>
+        <v>406087</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>411231</v>
+        <v>407083</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>411313</v>
+        <v>407496</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>412414</v>
+        <v>408198</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>412451</v>
+        <v>408433</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>412529</v>
+        <v>408474</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>413236</v>
+        <v>408560</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>413239</v>
+        <v>408813</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>413524</v>
+        <v>408952</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>413593</v>
+        <v>409257</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>413709</v>
+        <v>410013</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>413974</v>
+        <v>410358</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>414652</v>
+        <v>410414</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>414756</v>
+        <v>410710</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>416748</v>
+        <v>411231</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>417356</v>
+        <v>411313</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>417645</v>
+        <v>412414</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>418803</v>
+        <v>412451</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>421421</v>
+        <v>413236</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>421719</v>
+        <v>413239</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>422155</v>
+        <v>413524</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>422351</v>
+        <v>413593</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>422798</v>
+        <v>413709</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>424767</v>
+        <v>413974</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>426138</v>
+        <v>414652</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>426241</v>
+        <v>414756</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>429060</v>
+        <v>416748</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>429082</v>
+        <v>417356</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>429490</v>
+        <v>417645</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>432261</v>
+        <v>418803</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>432368</v>
+        <v>421421</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>432672</v>
+        <v>421626</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>434870</v>
+        <v>421719</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>435070</v>
+        <v>422155</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>435491</v>
+        <v>422351</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>436065</v>
+        <v>422798</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>436335</v>
+        <v>424767</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>437481</v>
+        <v>426138</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>437731</v>
+        <v>426241</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>439387</v>
+        <v>427197</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>439835</v>
+        <v>428462</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>440320</v>
+        <v>429060</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>440981</v>
+        <v>429082</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>441352</v>
+        <v>429490</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>441573</v>
+        <v>432261</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>442166</v>
+        <v>432368</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>442906</v>
+        <v>432672</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>445922</v>
+        <v>434870</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>446630</v>
+        <v>435070</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>446833</v>
+        <v>435491</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>447252</v>
+        <v>436065</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>447596</v>
+        <v>436335</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>451001</v>
+        <v>437481</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>451213</v>
+        <v>439387</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>452541</v>
+        <v>439835</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>452904</v>
+        <v>440320</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>455717</v>
+        <v>441352</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>456023</v>
+        <v>441573</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>458445</v>
+        <v>442166</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>462417</v>
+        <v>442906</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>463406</v>
+        <v>444254</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>463494</v>
+        <v>445078</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>463920</v>
+        <v>445922</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>465422</v>
+        <v>446630</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>465755</v>
+        <v>446833</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>466057</v>
+        <v>447252</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>466982</v>
+        <v>447596</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>468083</v>
+        <v>451026</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>468559</v>
+        <v>451213</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>468803</v>
+        <v>452541</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>469137</v>
+        <v>455717</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>471225</v>
+        <v>455733</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>472002</v>
+        <v>456023</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>473106</v>
+        <v>458445</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>473371</v>
+        <v>463406</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>473399</v>
+        <v>463494</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>474038</v>
+        <v>463920</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>474980</v>
+        <v>465422</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>477095</v>
+        <v>465755</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>477344</v>
+        <v>466057</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>477723</v>
+        <v>466441</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>478331</v>
+        <v>466461</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>479750</v>
+        <v>466982</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>480663</v>
+        <v>468559</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>481592</v>
+        <v>469137</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>481925</v>
+        <v>471225</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>482049</v>
+        <v>473106</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>482101</v>
+        <v>473371</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>482130</v>
+        <v>473399</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>483549</v>
+        <v>474038</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>483759</v>
+        <v>474372</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>486045</v>
+        <v>474980</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>486404</v>
+        <v>476000</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>487091</v>
+        <v>477095</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>488565</v>
+        <v>477344</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>489026</v>
+        <v>477723</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>489398</v>
+        <v>478331</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>489691</v>
+        <v>479750</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>489946</v>
+        <v>480663</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>490691</v>
+        <v>481592</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>491592</v>
+        <v>481925</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>491972</v>
+        <v>482101</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>491988</v>
+        <v>482130</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>492278</v>
+        <v>483549</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>492411</v>
+        <v>483759</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>494566</v>
+        <v>486045</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>494771</v>
+        <v>486404</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>495013</v>
+        <v>487091</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>495034</v>
+        <v>489026</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>495592</v>
+        <v>489398</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>495862</v>
+        <v>489691</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>496117</v>
+        <v>489946</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>497049</v>
+        <v>490691</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>497379</v>
+        <v>491592</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>497861</v>
+        <v>491972</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>499013</v>
+        <v>491988</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>499236</v>
+        <v>492278</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>504155</v>
+        <v>492411</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>505566</v>
+        <v>494566</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>506325</v>
+        <v>494771</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>509160</v>
+        <v>495013</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>509425</v>
+        <v>495034</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>509819</v>
+        <v>495592</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>511445</v>
+        <v>495862</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>511824</v>
+        <v>496117</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>513412</v>
+        <v>497049</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>513453</v>
+        <v>497379</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>514930</v>
+        <v>497861</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>515709</v>
+        <v>499013</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>517615</v>
+        <v>499236</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>518872</v>
+        <v>502560</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>519352</v>
+        <v>502862</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>519618</v>
+        <v>504155</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>520730</v>
+        <v>505566</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>520847</v>
+        <v>506325</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>521978</v>
+        <v>509160</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>523177</v>
+        <v>509425</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>523591</v>
+        <v>509819</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>524022</v>
+        <v>511445</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>526057</v>
+        <v>511824</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>528276</v>
+        <v>513453</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>529335</v>
+        <v>514930</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>530702</v>
+        <v>515709</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>532304</v>
+        <v>517615</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>536689</v>
+        <v>518872</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>539161</v>
+        <v>519352</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>540495</v>
+        <v>520730</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>542012</v>
+        <v>520836</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>542172</v>
+        <v>520847</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>542617</v>
+        <v>521978</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>543581</v>
+        <v>523177</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>544476</v>
+        <v>524022</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>544985</v>
+        <v>526057</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>545283</v>
+        <v>529335</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>546211</v>
+        <v>530702</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>547684</v>
+        <v>535572</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>548627</v>
+        <v>536689</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>550085</v>
+        <v>539161</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>551117</v>
+        <v>540495</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>551134</v>
+        <v>542012</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>551220</v>
+        <v>542172</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>553946</v>
+        <v>542617</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>554545</v>
+        <v>543581</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>555814</v>
+        <v>544985</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>557888</v>
+        <v>545283</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>558748</v>
+        <v>546211</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>558758</v>
+        <v>547684</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>559669</v>
+        <v>548627</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>559941</v>
+        <v>550085</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>561139</v>
+        <v>550993</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>561142</v>
+        <v>551117</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>561437</v>
+        <v>551134</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>561781</v>
+        <v>551220</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>562742</v>
+        <v>553946</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>563194</v>
+        <v>554545</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>565081</v>
+        <v>555777</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>567194</v>
+        <v>557888</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>568285</v>
+        <v>558758</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>568520</v>
+        <v>559778</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>572996</v>
+        <v>559941</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>573222</v>
+        <v>560520</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>574048</v>
+        <v>561139</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>574084</v>
+        <v>561437</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>574195</v>
+        <v>561781</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>574730</v>
+        <v>562742</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>576373</v>
+        <v>563194</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>576465</v>
+        <v>565081</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>580029</v>
+        <v>567194</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>584438</v>
+        <v>567545</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>584458</v>
+        <v>568520</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>585338</v>
+        <v>571077</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>585494</v>
+        <v>572996</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>585919</v>
+        <v>573222</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>589195</v>
+        <v>573350</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>590458</v>
+        <v>574048</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>591057</v>
+        <v>574084</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>591293</v>
+        <v>574130</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>592963</v>
+        <v>574730</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>593209</v>
+        <v>576373</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>593506</v>
+        <v>576465</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>595719</v>
+        <v>580029</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>595815</v>
+        <v>584438</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>596069</v>
+        <v>584458</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>598262</v>
+        <v>585338</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>600059</v>
+        <v>585494</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>600296</v>
+        <v>585919</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>601691</v>
+        <v>589251</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>614343</v>
+        <v>590458</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>614344</v>
+        <v>591293</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>614747</v>
+        <v>591481</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>616896</v>
+        <v>592963</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>617909</v>
+        <v>593209</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>618661</v>
+        <v>595719</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>619831</v>
+        <v>595815</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>623929</v>
+        <v>597720</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>624743</v>
+        <v>598262</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>627163</v>
+        <v>600059</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>628469</v>
+        <v>600296</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>630131</v>
+        <v>606465</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>631058</v>
+        <v>607883</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>634270</v>
+        <v>614343</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>634365</v>
+        <v>614344</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>635335</v>
+        <v>616896</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>635550</v>
+        <v>617909</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>635818</v>
+        <v>619831</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>636178</v>
+        <v>623645</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>636806</v>
+        <v>623929</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>637115</v>
+        <v>624743</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>637424</v>
+        <v>627163</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>640062</v>
+        <v>628469</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>641609</v>
+        <v>630131</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>643749</v>
+        <v>631058</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>644203</v>
+        <v>634270</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>644475</v>
+        <v>634365</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>647990</v>
+        <v>635335</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>649581</v>
+        <v>635550</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>651428</v>
+        <v>635818</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>653377</v>
+        <v>636178</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>654018</v>
+        <v>636806</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>654136</v>
+        <v>637115</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>656376</v>
+        <v>637424</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>656889</v>
+        <v>640062</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>657601</v>
+        <v>641609</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>659258</v>
+        <v>644203</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>660147</v>
+        <v>644475</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>660588</v>
+        <v>647990</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>661111</v>
+        <v>649581</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>661749</v>
+        <v>651428</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>662855</v>
+        <v>653377</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>663211</v>
+        <v>654018</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>664573</v>
+        <v>654136</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>664664</v>
+        <v>656376</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>667340</v>
+        <v>656889</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>669808</v>
+        <v>657601</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>670156</v>
+        <v>659258</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>671531</v>
+        <v>660588</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>671674</v>
+        <v>661111</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>673667</v>
+        <v>661749</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>674011</v>
+        <v>662855</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>674372</v>
+        <v>663211</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>674374</v>
+        <v>664528</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>677403</v>
+        <v>664664</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>681257</v>
+        <v>667340</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>681842</v>
+        <v>669759</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>681983</v>
+        <v>669808</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>682586</v>
+        <v>670156</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>682948</v>
+        <v>671531</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>683281</v>
+        <v>671674</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>684456</v>
+        <v>673667</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>684620</v>
+        <v>674372</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>685790</v>
+        <v>674374</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>686158</v>
+        <v>677403</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>691808</v>
+        <v>679458</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>692748</v>
+        <v>679589</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>692783</v>
+        <v>681257</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>693866</v>
+        <v>681842</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>695558</v>
+        <v>681983</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>696620</v>
+        <v>682586</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>697056</v>
+        <v>682948</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>697739</v>
+        <v>683281</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>698438</v>
+        <v>684456</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>700156</v>
+        <v>684620</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>700700</v>
+        <v>685790</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>701947</v>
+        <v>686158</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>704473</v>
+        <v>686926</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>706127</v>
+        <v>691808</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>707679</v>
+        <v>692748</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>709484</v>
+        <v>692783</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>710442</v>
+        <v>693866</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>711454</v>
+        <v>695558</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>712251</v>
+        <v>696620</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>715069</v>
+        <v>697056</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>715655</v>
+        <v>697739</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>717031</v>
+        <v>698438</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>718028</v>
+        <v>700156</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>720288</v>
+        <v>700700</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>720938</v>
+        <v>701947</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>721639</v>
+        <v>704473</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>723097</v>
+        <v>706127</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>723355</v>
+        <v>707679</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>724497</v>
+        <v>710442</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>724761</v>
+        <v>711454</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>727555</v>
+        <v>715069</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>729850</v>
+        <v>715655</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>730360</v>
+        <v>717031</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>730620</v>
+        <v>718028</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>730739</v>
+        <v>720288</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>731725</v>
+        <v>720938</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>732994</v>
+        <v>721639</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>733709</v>
+        <v>723097</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>734594</v>
+        <v>723355</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>735046</v>
+        <v>724497</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>735240</v>
+        <v>724761</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>735664</v>
+        <v>727555</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>737312</v>
+        <v>728710</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>737640</v>
+        <v>729850</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>738051</v>
+        <v>730360</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>741414</v>
+        <v>730620</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>741421</v>
+        <v>730739</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>741430</v>
+        <v>731725</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>742574</v>
+        <v>732994</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>742581</v>
+        <v>733709</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>743604</v>
+        <v>734594</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>743762</v>
+        <v>735046</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>744056</v>
+        <v>735664</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>744195</v>
+        <v>737312</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>745510</v>
+        <v>737640</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>746527</v>
+        <v>738051</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>747709</v>
+        <v>741414</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>747982</v>
+        <v>741421</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>753610</v>
+        <v>741430</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>756394</v>
+        <v>742574</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>756999</v>
+        <v>742581</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>758759</v>
+        <v>743604</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>760756</v>
+        <v>743762</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>763250</v>
+        <v>744195</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>765034</v>
+        <v>745510</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>766292</v>
+        <v>746527</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>766450</v>
+        <v>747709</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>766572</v>
+        <v>747982</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>767388</v>
+        <v>756394</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>769229</v>
+        <v>756999</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>770123</v>
+        <v>758759</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>770132</v>
+        <v>760756</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>770837</v>
+        <v>763250</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>772304</v>
+        <v>765034</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>773379</v>
+        <v>766292</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>773412</v>
+        <v>766450</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>773883</v>
+        <v>766572</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>774540</v>
+        <v>767388</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>775024</v>
+        <v>769229</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>776301</v>
+        <v>770123</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>776603</v>
+        <v>770132</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>778547</v>
+        <v>770837</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>779704</v>
+        <v>772304</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>781538</v>
+        <v>773333</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>782560</v>
+        <v>773379</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>783712</v>
+        <v>773883</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>785358</v>
+        <v>774540</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>785366</v>
+        <v>774917</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>785553</v>
+        <v>775024</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>785592</v>
+        <v>776301</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>790045</v>
+        <v>776603</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>790235</v>
+        <v>778547</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>791672</v>
+        <v>779704</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>792283</v>
+        <v>781538</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>798233</v>
+        <v>785358</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>816669</v>
+        <v>785366</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>849338</v>
+        <v>785553</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>850822</v>
+        <v>785592</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>852611</v>
+        <v>790045</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>853281</v>
+        <v>790235</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>854249</v>
+        <v>791672</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>855262</v>
+        <v>792283</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>862437</v>
+        <v>798233</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>862594</v>
+        <v>816669</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>863545</v>
+        <v>817147</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>864774</v>
+        <v>850822</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>865475</v>
+        <v>850849</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>867814</v>
+        <v>852611</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>868914</v>
+        <v>853281</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>871051</v>
+        <v>854249</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>872017</v>
+        <v>861807</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>872799</v>
+        <v>862437</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>873207</v>
+        <v>862594</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>873359</v>
+        <v>863545</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>873360</v>
+        <v>864774</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>873681</v>
+        <v>865475</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>874816</v>
+        <v>867599</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>877164</v>
+        <v>868914</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>877972</v>
+        <v>871051</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>878196</v>
+        <v>872003</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>879270</v>
+        <v>872017</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>879857</v>
+        <v>872799</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>880085</v>
+        <v>873207</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>884531</v>
+        <v>873359</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>885400</v>
+        <v>873360</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>885433</v>
+        <v>873681</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>900539</v>
+        <v>874816</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>907023</v>
+        <v>877164</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>907500</v>
+        <v>877972</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>909829</v>
+        <v>878196</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>915294</v>
+        <v>879270</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>916251</v>
+        <v>879857</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>917258</v>
+        <v>880085</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>919598</v>
+        <v>884531</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>921057</v>
+        <v>885400</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>930255</v>
+        <v>885433</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>930510</v>
+        <v>885689</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>931866</v>
+        <v>892481</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>932758</v>
+        <v>900539</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>934841</v>
+        <v>905188</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>935720</v>
+        <v>907023</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>935814</v>
+        <v>907500</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>936267</v>
+        <v>909829</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>937264</v>
+        <v>915294</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>939760</v>
+        <v>915754</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>941452</v>
+        <v>916251</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>941873</v>
+        <v>917258</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>943844</v>
+        <v>919598</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>944367</v>
+        <v>921057</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>944556</v>
+        <v>926600</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>946296</v>
+        <v>930255</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>947053</v>
+        <v>930510</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>948093</v>
+        <v>931866</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>948940</v>
+        <v>932758</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>949477</v>
+        <v>934841</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>949549</v>
+        <v>935720</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>951661</v>
+        <v>935814</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>951815</v>
+        <v>937264</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>952620</v>
+        <v>939760</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>953115</v>
+        <v>941452</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>953459</v>
+        <v>941873</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>953883</v>
+        <v>943844</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>954046</v>
+        <v>944367</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>956408</v>
+        <v>946103</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>957088</v>
+        <v>946296</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>957156</v>
+        <v>947053</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>957212</v>
+        <v>948093</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>957479</v>
+        <v>948940</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>957549</v>
+        <v>949477</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>957578</v>
+        <v>949549</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>957602</v>
+        <v>950333</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>957624</v>
+        <v>950811</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>957639</v>
+        <v>951661</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>957812</v>
+        <v>951815</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>957895</v>
+        <v>952620</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>957931</v>
+        <v>953115</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>957937</v>
+        <v>953459</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>957944</v>
+        <v>953883</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>957947</v>
+        <v>954046</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>957950</v>
+        <v>956408</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>958064</v>
+        <v>956505</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>958173</v>
+        <v>957088</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>958185</v>
+        <v>957156</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>958220</v>
+        <v>957212</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>958240</v>
+        <v>957479</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>958281</v>
+        <v>957549</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>958351</v>
+        <v>957578</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>958364</v>
+        <v>957602</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>958370</v>
+        <v>957624</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>958599</v>
+        <v>957639</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>958952</v>
+        <v>957812</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>958993</v>
+        <v>957895</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>959135</v>
+        <v>957931</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>959239</v>
+        <v>957937</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>959328</v>
+        <v>957944</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>959493</v>
+        <v>957947</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>959594</v>
+        <v>957950</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>959669</v>
+        <v>958064</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>959838</v>
+        <v>958173</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>959849</v>
+        <v>958185</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>959930</v>
+        <v>958220</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>959962</v>
+        <v>958240</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>960208</v>
+        <v>958281</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>960317</v>
+        <v>958351</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>960330</v>
+        <v>958364</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>960335</v>
+        <v>958370</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>960589</v>
+        <v>958599</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>960638</v>
+        <v>958952</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>960658</v>
+        <v>958993</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>960719</v>
+        <v>959135</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>960748</v>
+        <v>959239</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>961395</v>
+        <v>959328</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>961412</v>
+        <v>959493</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>961973</v>
+        <v>959594</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>962047</v>
+        <v>959669</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>962069</v>
+        <v>959838</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>962090</v>
+        <v>959849</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>962093</v>
+        <v>959930</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>962106</v>
+        <v>959962</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>962140</v>
+        <v>960208</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>962145</v>
+        <v>960317</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>962148</v>
+        <v>960330</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>962361</v>
+        <v>960567</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>962365</v>
+        <v>960589</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>962429</v>
+        <v>960638</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>962474</v>
+        <v>960658</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>962498</v>
+        <v>960719</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>962772</v>
+        <v>960748</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>962788</v>
+        <v>961395</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>962796</v>
+        <v>961412</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>962853</v>
+        <v>961973</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>963081</v>
+        <v>962047</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>963128</v>
+        <v>962069</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>963144</v>
+        <v>962090</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>963176</v>
+        <v>962093</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>963838</v>
+        <v>962106</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>963867</v>
+        <v>962140</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>963925</v>
+        <v>962145</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>964249</v>
+        <v>962148</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>964288</v>
+        <v>962361</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>964291</v>
+        <v>962365</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>964330</v>
+        <v>962429</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>964360</v>
+        <v>962474</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>964500</v>
+        <v>962498</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>964566</v>
+        <v>962772</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>964580</v>
+        <v>962788</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>964592</v>
+        <v>962796</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>964624</v>
+        <v>962853</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>964770</v>
+        <v>963081</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831">
-        <v>964878</v>
+        <v>963128</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>964941</v>
+        <v>963144</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>964968</v>
+        <v>963176</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>964989</v>
+        <v>963838</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>965063</v>
+        <v>963867</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836">
-        <v>965168</v>
+        <v>963925</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>965280</v>
+        <v>964249</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838">
-        <v>965465</v>
+        <v>964288</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>965683</v>
+        <v>964291</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840">
-        <v>965861</v>
+        <v>964330</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>966429</v>
+        <v>964360</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>966807</v>
+        <v>964500</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843">
-        <v>967058</v>
+        <v>964566</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844">
-        <v>967164</v>
+        <v>964580</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845">
-        <v>967200</v>
+        <v>964592</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846">
-        <v>967272</v>
+        <v>964624</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847">
-        <v>967528</v>
+        <v>964770</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848">
-        <v>967721</v>
+        <v>964878</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849">
+        <v>964941</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850">
+        <v>964968</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851">
+        <v>965063</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852">
+        <v>965168</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1">
+      <c r="A853">
+        <v>965280</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1">
+      <c r="A854">
+        <v>965465</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1">
+      <c r="A855">
+        <v>965683</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1">
+      <c r="A856">
+        <v>966429</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857">
+        <v>966807</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1">
+      <c r="A858">
+        <v>967058</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1">
+      <c r="A859">
+        <v>967164</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860">
+        <v>967200</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1">
+      <c r="A861">
+        <v>967272</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1">
+      <c r="A862">
+        <v>967528</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863">
+        <v>967721</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1">
+      <c r="A864">
         <v>967937</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865">
+        <v>970672</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866">
+        <v>971267</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867">
+        <v>971897</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868">
+        <v>972337</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869">
+        <v>972550</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1">
+      <c r="A870">
+        <v>972605</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871">
+        <v>973592</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872">
+        <v>973670</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873">
+        <v>973849</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874">
+        <v>974254</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875">
+        <v>974596</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876">
+        <v>975940</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1">
+      <c r="A877">
+        <v>976303</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878">
+        <v>976719</v>
       </c>
     </row>
   </sheetData>

--- a/WS_tags/tag_3151_list.xlsx
+++ b/WS_tags/tag_3151_list.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A878"/>
+  <dimension ref="A1:A904"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,207 +542,207 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>119317</v>
+        <v>115809</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>119570</v>
+        <v>119317</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>119804</v>
+        <v>119570</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>120221</v>
+        <v>119804</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>120659</v>
+        <v>120221</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>122692</v>
+        <v>120659</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>122769</v>
+        <v>122692</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>123662</v>
+        <v>122769</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>126062</v>
+        <v>123245</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>126810</v>
+        <v>123662</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>127728</v>
+        <v>126062</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>130653</v>
+        <v>126810</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>131420</v>
+        <v>127728</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>131836</v>
+        <v>130653</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>133865</v>
+        <v>131420</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>134367</v>
+        <v>131836</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>151939</v>
+        <v>133865</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>154395</v>
+        <v>151939</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>177016</v>
+        <v>154395</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>188901</v>
+        <v>177016</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>202073</v>
+        <v>188901</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>202252</v>
+        <v>201705</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>205535</v>
+        <v>202073</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>210037</v>
+        <v>202252</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>214858</v>
+        <v>205535</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>216745</v>
+        <v>210037</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>216789</v>
+        <v>214858</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>216994</v>
+        <v>216789</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>219206</v>
+        <v>216994</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>219952</v>
+        <v>219206</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>221087</v>
+        <v>219952</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>224909</v>
+        <v>221087</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>226088</v>
+        <v>224909</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>226226</v>
+        <v>226088</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>227320</v>
+        <v>226226</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>227506</v>
+        <v>227320</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>228684</v>
+        <v>227506</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>229966</v>
+        <v>228684</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>230914</v>
+        <v>229966</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>232453</v>
+        <v>230914</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>232863</v>
+        <v>232453</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -777,47 +777,47 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>234636</v>
+        <v>235149</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>235149</v>
+        <v>235545</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>235545</v>
+        <v>236055</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>236055</v>
+        <v>236147</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>236147</v>
+        <v>237270</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>237270</v>
+        <v>237820</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>237820</v>
+        <v>238343</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>238343</v>
+        <v>240041</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>240041</v>
+        <v>240903</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -867,207 +867,207 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>248043</v>
+        <v>246512</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>251634</v>
+        <v>248043</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>252393</v>
+        <v>251634</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>252404</v>
+        <v>252393</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>253379</v>
+        <v>252404</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>253405</v>
+        <v>253379</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>255504</v>
+        <v>253405</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>257303</v>
+        <v>255504</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>257816</v>
+        <v>257303</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>259339</v>
+        <v>257816</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>259913</v>
+        <v>259339</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>260386</v>
+        <v>259913</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>262378</v>
+        <v>260386</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>264870</v>
+        <v>262378</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>266041</v>
+        <v>264870</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>266658</v>
+        <v>266041</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>266982</v>
+        <v>266658</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>268060</v>
+        <v>266982</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>269937</v>
+        <v>268060</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>271581</v>
+        <v>269937</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>273283</v>
+        <v>274026</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>274026</v>
+        <v>274079</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>274079</v>
+        <v>275748</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>275748</v>
+        <v>276191</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>276191</v>
+        <v>276269</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>276269</v>
+        <v>276502</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>276502</v>
+        <v>276687</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>276687</v>
+        <v>276981</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>276981</v>
+        <v>277544</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>277544</v>
+        <v>278547</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>278547</v>
+        <v>281103</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>281103</v>
+        <v>281757</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>281757</v>
+        <v>281764</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>281764</v>
+        <v>282101</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>282101</v>
+        <v>282390</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>282390</v>
+        <v>283673</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>283673</v>
+        <v>284270</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>284270</v>
+        <v>284555</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>284555</v>
+        <v>286265</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>286265</v>
+        <v>288078</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>288078</v>
+        <v>288407</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -1077,207 +1077,207 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>291583</v>
+        <v>290876</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>293504</v>
+        <v>291583</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>293798</v>
+        <v>293504</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>295480</v>
+        <v>293798</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>295737</v>
+        <v>295480</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>297758</v>
+        <v>295737</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>299408</v>
+        <v>297758</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>299531</v>
+        <v>299408</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>300354</v>
+        <v>299531</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>301023</v>
+        <v>300354</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>304014</v>
+        <v>301023</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>304879</v>
+        <v>304014</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>306704</v>
+        <v>304879</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>306807</v>
+        <v>306704</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>306808</v>
+        <v>306807</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>306842</v>
+        <v>306808</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>307031</v>
+        <v>306842</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>308053</v>
+        <v>307011</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>308129</v>
+        <v>307031</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>308439</v>
+        <v>308053</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>309457</v>
+        <v>308129</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>312050</v>
+        <v>308439</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>316867</v>
+        <v>309457</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>317463</v>
+        <v>312050</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>318977</v>
+        <v>316867</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>321152</v>
+        <v>317463</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>323042</v>
+        <v>318977</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>324300</v>
+        <v>321152</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>325104</v>
+        <v>323042</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>325285</v>
+        <v>325104</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>327621</v>
+        <v>325285</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>328346</v>
+        <v>327621</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>329676</v>
+        <v>328346</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>329710</v>
+        <v>329676</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>329843</v>
+        <v>329710</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>330186</v>
+        <v>329843</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>330533</v>
+        <v>330186</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>330721</v>
+        <v>330533</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>331781</v>
+        <v>330721</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>332586</v>
+        <v>331781</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>333242</v>
+        <v>332586</v>
       </c>
     </row>
     <row r="181" spans="1:1">
@@ -1292,22 +1292,22 @@
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>335117</v>
+        <v>335425</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>335425</v>
+        <v>336371</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>336371</v>
+        <v>336558</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>336558</v>
+        <v>337225</v>
       </c>
     </row>
     <row r="187" spans="1:1">
@@ -1322,77 +1322,77 @@
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>339439</v>
+        <v>338649</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>340624</v>
+        <v>339439</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>340664</v>
+        <v>340624</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>342755</v>
+        <v>340664</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>342849</v>
+        <v>342050</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>343121</v>
+        <v>342755</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>343249</v>
+        <v>342849</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>343565</v>
+        <v>343121</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>343590</v>
+        <v>343249</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>344185</v>
+        <v>343565</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>344614</v>
+        <v>343590</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>344679</v>
+        <v>344185</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>344707</v>
+        <v>344614</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>345038</v>
+        <v>344679</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>345300</v>
+        <v>344707</v>
       </c>
     </row>
     <row r="204" spans="1:1">
@@ -1402,932 +1402,932 @@
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>346767</v>
+        <v>346844</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>346844</v>
+        <v>347222</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>347222</v>
+        <v>347315</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>347315</v>
+        <v>347991</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>347991</v>
+        <v>348714</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>348714</v>
+        <v>351808</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>351808</v>
+        <v>352359</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>352359</v>
+        <v>352433</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>352433</v>
+        <v>352600</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>352600</v>
+        <v>352729</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>353032</v>
+        <v>352754</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>353290</v>
+        <v>353032</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>353336</v>
+        <v>353290</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>354313</v>
+        <v>353336</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>355598</v>
+        <v>354313</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>355640</v>
+        <v>354961</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>356133</v>
+        <v>355598</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>356222</v>
+        <v>355640</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>356730</v>
+        <v>356133</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>357953</v>
+        <v>356222</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>358243</v>
+        <v>356730</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>359057</v>
+        <v>356856</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>359077</v>
+        <v>357953</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>359220</v>
+        <v>358243</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>359594</v>
+        <v>359057</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>359765</v>
+        <v>359077</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>360021</v>
+        <v>359220</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>360085</v>
+        <v>359594</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>360665</v>
+        <v>359765</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>360794</v>
+        <v>360021</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>360943</v>
+        <v>360665</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>361824</v>
+        <v>360794</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>362086</v>
+        <v>361824</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>362321</v>
+        <v>362086</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>363722</v>
+        <v>362321</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>365436</v>
+        <v>363722</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>365913</v>
+        <v>365436</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>366828</v>
+        <v>365913</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>366998</v>
+        <v>366828</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>367961</v>
+        <v>366998</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>368265</v>
+        <v>367961</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>369552</v>
+        <v>368265</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>369771</v>
+        <v>368656</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>370264</v>
+        <v>369552</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>370645</v>
+        <v>369771</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>372499</v>
+        <v>370264</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>372786</v>
+        <v>370645</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>373829</v>
+        <v>371900</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>373850</v>
+        <v>372499</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>373957</v>
+        <v>372786</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>374544</v>
+        <v>372821</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>374584</v>
+        <v>373829</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>374628</v>
+        <v>373850</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>375230</v>
+        <v>373957</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>375263</v>
+        <v>374544</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>375503</v>
+        <v>374584</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>375697</v>
+        <v>374628</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>375936</v>
+        <v>375230</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>376061</v>
+        <v>375697</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>376340</v>
+        <v>375936</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>376660</v>
+        <v>376061</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>377436</v>
+        <v>376340</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>377884</v>
+        <v>376660</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>379165</v>
+        <v>377436</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>380095</v>
+        <v>377884</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>380456</v>
+        <v>379165</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>380579</v>
+        <v>379269</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>381505</v>
+        <v>380095</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>381849</v>
+        <v>380456</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>382775</v>
+        <v>380579</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>384187</v>
+        <v>381505</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>384286</v>
+        <v>381849</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>384836</v>
+        <v>382041</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>384962</v>
+        <v>382775</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>385226</v>
+        <v>384187</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>389398</v>
+        <v>384286</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>389723</v>
+        <v>384541</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>390745</v>
+        <v>384836</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>390829</v>
+        <v>384962</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>391039</v>
+        <v>385226</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>392065</v>
+        <v>389398</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>392190</v>
+        <v>389723</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>394412</v>
+        <v>390745</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>395005</v>
+        <v>391039</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>395456</v>
+        <v>392065</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>395564</v>
+        <v>394412</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>397605</v>
+        <v>395005</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>397693</v>
+        <v>395456</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>398605</v>
+        <v>395564</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>398945</v>
+        <v>397605</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>398978</v>
+        <v>397693</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>399013</v>
+        <v>398605</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>399087</v>
+        <v>398945</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>399334</v>
+        <v>398978</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>400649</v>
+        <v>399013</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>400671</v>
+        <v>399334</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>400883</v>
+        <v>400649</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>402145</v>
+        <v>400671</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>402957</v>
+        <v>400883</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>403030</v>
+        <v>401510</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>404164</v>
+        <v>402145</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>404766</v>
+        <v>402957</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>404897</v>
+        <v>403030</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>405156</v>
+        <v>404164</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>406049</v>
+        <v>404766</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>406087</v>
+        <v>404897</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>407083</v>
+        <v>405156</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>407496</v>
+        <v>406049</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>408198</v>
+        <v>406087</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>408433</v>
+        <v>407083</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>408474</v>
+        <v>407215</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>408560</v>
+        <v>407496</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>408813</v>
+        <v>408198</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>408952</v>
+        <v>408433</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>409257</v>
+        <v>408474</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>410013</v>
+        <v>408560</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>410358</v>
+        <v>408731</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>410414</v>
+        <v>408813</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>410710</v>
+        <v>409257</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>411231</v>
+        <v>410013</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>411313</v>
+        <v>410358</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>412414</v>
+        <v>410414</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>412451</v>
+        <v>410710</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>413236</v>
+        <v>411231</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>413239</v>
+        <v>411313</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>413524</v>
+        <v>412414</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>413593</v>
+        <v>412451</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>413709</v>
+        <v>413236</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>413974</v>
+        <v>413239</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>414652</v>
+        <v>413524</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>414756</v>
+        <v>413709</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>416748</v>
+        <v>414652</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>417356</v>
+        <v>414756</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>417645</v>
+        <v>416748</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>418803</v>
+        <v>417356</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>421421</v>
+        <v>417645</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>421626</v>
+        <v>418803</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>421719</v>
+        <v>421421</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>422155</v>
+        <v>421626</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>422351</v>
+        <v>421719</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>422798</v>
+        <v>422155</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>424767</v>
+        <v>422351</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>426138</v>
+        <v>422798</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>426241</v>
+        <v>424767</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>427197</v>
+        <v>426241</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>428462</v>
+        <v>427197</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>429060</v>
+        <v>428462</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>429082</v>
+        <v>429060</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>429490</v>
+        <v>429082</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>432261</v>
+        <v>429490</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>432368</v>
+        <v>429577</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>432672</v>
+        <v>432261</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>434870</v>
+        <v>432368</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>435070</v>
+        <v>432672</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>435491</v>
+        <v>435070</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>436065</v>
+        <v>435212</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>436335</v>
+        <v>435491</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>437481</v>
+        <v>436065</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>439387</v>
+        <v>436335</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>439835</v>
+        <v>437481</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>440320</v>
+        <v>437599</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>441352</v>
+        <v>439387</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>441573</v>
+        <v>439835</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>442166</v>
+        <v>440320</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>442906</v>
+        <v>441352</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>444254</v>
+        <v>441573</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>445078</v>
+        <v>442166</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>445922</v>
+        <v>442906</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>446630</v>
+        <v>444254</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>446833</v>
+        <v>445078</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>447252</v>
+        <v>445922</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>447596</v>
+        <v>446630</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>451026</v>
+        <v>446833</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>451213</v>
+        <v>447596</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>452541</v>
+        <v>451026</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>455717</v>
+        <v>451213</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>455733</v>
+        <v>452541</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>456023</v>
+        <v>455717</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>458445</v>
+        <v>455733</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>463406</v>
+        <v>456023</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>463494</v>
+        <v>458445</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>463920</v>
+        <v>463406</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>465422</v>
+        <v>463494</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>465755</v>
+        <v>463920</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>466057</v>
+        <v>465422</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>466441</v>
+        <v>465755</v>
       </c>
     </row>
     <row r="391" spans="1:1">
@@ -2352,2422 +2352,2552 @@
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>471225</v>
+        <v>469810</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>473106</v>
+        <v>471225</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>473371</v>
+        <v>472829</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>473399</v>
+        <v>473106</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>474038</v>
+        <v>473371</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>474372</v>
+        <v>473399</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>474980</v>
+        <v>473407</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>476000</v>
+        <v>474038</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>477095</v>
+        <v>474372</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>477344</v>
+        <v>474980</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>477723</v>
+        <v>476000</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>478331</v>
+        <v>476834</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>479750</v>
+        <v>477095</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>480663</v>
+        <v>477344</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>481592</v>
+        <v>477723</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>481925</v>
+        <v>478331</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>482101</v>
+        <v>478353</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>482130</v>
+        <v>479544</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>483549</v>
+        <v>479750</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>483759</v>
+        <v>480663</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>486045</v>
+        <v>481592</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>486404</v>
+        <v>481925</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>487091</v>
+        <v>482101</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>489026</v>
+        <v>483549</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>489398</v>
+        <v>483857</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>489691</v>
+        <v>486045</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>489946</v>
+        <v>486404</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>490691</v>
+        <v>487091</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>491592</v>
+        <v>489026</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>491972</v>
+        <v>489398</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>491988</v>
+        <v>489594</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>492278</v>
+        <v>489946</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>492411</v>
+        <v>490691</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>494566</v>
+        <v>491592</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>494771</v>
+        <v>491972</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>495013</v>
+        <v>492278</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>495034</v>
+        <v>492411</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>495592</v>
+        <v>494566</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>495862</v>
+        <v>494771</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>496117</v>
+        <v>495013</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>497049</v>
+        <v>495034</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>497379</v>
+        <v>495592</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>497861</v>
+        <v>495920</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>499013</v>
+        <v>496071</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>499236</v>
+        <v>496117</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>502560</v>
+        <v>497049</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>502862</v>
+        <v>497379</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>504155</v>
+        <v>497861</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>505566</v>
+        <v>499013</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>506325</v>
+        <v>499236</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>509160</v>
+        <v>502560</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>509425</v>
+        <v>502862</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>509819</v>
+        <v>504155</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>511445</v>
+        <v>505566</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>511824</v>
+        <v>506325</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>513453</v>
+        <v>509160</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>514930</v>
+        <v>509425</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>515709</v>
+        <v>509819</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>517615</v>
+        <v>511445</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>518872</v>
+        <v>511824</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>519352</v>
+        <v>513453</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>520730</v>
+        <v>514930</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>520836</v>
+        <v>515709</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>520847</v>
+        <v>517615</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>521978</v>
+        <v>518872</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>523177</v>
+        <v>519352</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>524022</v>
+        <v>520730</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>526057</v>
+        <v>520836</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>529335</v>
+        <v>520847</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>530702</v>
+        <v>521978</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>535572</v>
+        <v>523177</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>536689</v>
+        <v>524022</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>539161</v>
+        <v>526057</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>540495</v>
+        <v>526367</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>542012</v>
+        <v>529335</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>542172</v>
+        <v>529929</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>542617</v>
+        <v>530702</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>543581</v>
+        <v>535572</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>544985</v>
+        <v>536689</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>545283</v>
+        <v>539161</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>546211</v>
+        <v>540495</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>547684</v>
+        <v>542012</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>548627</v>
+        <v>542172</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>550085</v>
+        <v>542617</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>550993</v>
+        <v>543581</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>551117</v>
+        <v>544594</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>551134</v>
+        <v>544985</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>551220</v>
+        <v>545283</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>553946</v>
+        <v>546211</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>554545</v>
+        <v>547684</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>555777</v>
+        <v>548627</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>557888</v>
+        <v>550085</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>558758</v>
+        <v>550993</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>559778</v>
+        <v>551117</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>559941</v>
+        <v>551220</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>560520</v>
+        <v>553946</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>561139</v>
+        <v>554545</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>561437</v>
+        <v>555777</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>561781</v>
+        <v>557888</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>562742</v>
+        <v>558758</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>563194</v>
+        <v>559669</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>565081</v>
+        <v>559778</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>567194</v>
+        <v>559941</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>567545</v>
+        <v>560520</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>568520</v>
+        <v>561139</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>571077</v>
+        <v>561437</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>572996</v>
+        <v>561781</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>573222</v>
+        <v>562293</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>573350</v>
+        <v>562742</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>574048</v>
+        <v>563194</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>574084</v>
+        <v>567194</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>574130</v>
+        <v>567545</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>574730</v>
+        <v>568520</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>576373</v>
+        <v>569502</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>576465</v>
+        <v>571077</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>580029</v>
+        <v>573222</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>584438</v>
+        <v>574048</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>584458</v>
+        <v>574084</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>585338</v>
+        <v>574130</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>585494</v>
+        <v>574730</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>585919</v>
+        <v>576373</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>589251</v>
+        <v>576465</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>590458</v>
+        <v>580029</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>591293</v>
+        <v>584438</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>591481</v>
+        <v>584458</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>592963</v>
+        <v>585338</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>593209</v>
+        <v>585494</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>595719</v>
+        <v>585919</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>595815</v>
+        <v>589251</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>597720</v>
+        <v>590458</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>598262</v>
+        <v>591293</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>600059</v>
+        <v>591481</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>600296</v>
+        <v>593209</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>606465</v>
+        <v>595719</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>607883</v>
+        <v>595815</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>614343</v>
+        <v>597720</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>614344</v>
+        <v>600059</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>616896</v>
+        <v>600402</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>617909</v>
+        <v>606465</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>619831</v>
+        <v>607575</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>623645</v>
+        <v>607883</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>623929</v>
+        <v>614343</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>624743</v>
+        <v>614344</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>627163</v>
+        <v>616896</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>628469</v>
+        <v>617909</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>630131</v>
+        <v>619831</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>631058</v>
+        <v>623645</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>634270</v>
+        <v>623929</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>634365</v>
+        <v>624743</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>635335</v>
+        <v>627163</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>635550</v>
+        <v>628469</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>635818</v>
+        <v>630131</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>636178</v>
+        <v>631058</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>636806</v>
+        <v>634270</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>637115</v>
+        <v>634365</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>637424</v>
+        <v>635335</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>640062</v>
+        <v>635550</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>641609</v>
+        <v>635818</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>644203</v>
+        <v>636178</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>644475</v>
+        <v>636806</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>647990</v>
+        <v>637115</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>649581</v>
+        <v>640062</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>651428</v>
+        <v>641609</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>653377</v>
+        <v>642848</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>654018</v>
+        <v>644203</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>654136</v>
+        <v>644475</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>656376</v>
+        <v>647990</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>656889</v>
+        <v>649581</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>657601</v>
+        <v>651428</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>659258</v>
+        <v>653377</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>660588</v>
+        <v>654136</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>661111</v>
+        <v>654203</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>661749</v>
+        <v>656376</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>662855</v>
+        <v>656889</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>663211</v>
+        <v>657601</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>664528</v>
+        <v>659258</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>664664</v>
+        <v>661749</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>667340</v>
+        <v>662855</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>669759</v>
+        <v>664528</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>669808</v>
+        <v>664664</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>670156</v>
+        <v>665254</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>671531</v>
+        <v>667340</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>671674</v>
+        <v>669759</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>673667</v>
+        <v>669808</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>674372</v>
+        <v>670156</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>674374</v>
+        <v>671531</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>677403</v>
+        <v>671674</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>679458</v>
+        <v>673667</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>679589</v>
+        <v>674372</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>681257</v>
+        <v>674374</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>681842</v>
+        <v>675754</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>681983</v>
+        <v>677403</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>682586</v>
+        <v>678596</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>682948</v>
+        <v>679458</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>683281</v>
+        <v>679589</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>684456</v>
+        <v>681257</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>684620</v>
+        <v>681842</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>685790</v>
+        <v>681983</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>686158</v>
+        <v>682586</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>686926</v>
+        <v>682948</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>691808</v>
+        <v>683281</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>692748</v>
+        <v>684456</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>692783</v>
+        <v>684620</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>693866</v>
+        <v>685790</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>695558</v>
+        <v>686158</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>696620</v>
+        <v>686926</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>697056</v>
+        <v>691808</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>697739</v>
+        <v>693866</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>698438</v>
+        <v>695558</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>700156</v>
+        <v>696620</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>700700</v>
+        <v>697056</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>701947</v>
+        <v>697739</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>704473</v>
+        <v>698438</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>706127</v>
+        <v>698671</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>707679</v>
+        <v>700156</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>710442</v>
+        <v>700700</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>711454</v>
+        <v>701947</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>715069</v>
+        <v>704473</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>715655</v>
+        <v>706127</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>717031</v>
+        <v>707679</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>718028</v>
+        <v>710442</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>720288</v>
+        <v>711454</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>720938</v>
+        <v>715069</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>721639</v>
+        <v>715655</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>723097</v>
+        <v>717031</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>723355</v>
+        <v>718028</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>724497</v>
+        <v>718492</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>724761</v>
+        <v>720288</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>727555</v>
+        <v>720938</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>728710</v>
+        <v>721366</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>729850</v>
+        <v>721639</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>730360</v>
+        <v>723097</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>730620</v>
+        <v>723355</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>730739</v>
+        <v>724497</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>731725</v>
+        <v>724761</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630">
-        <v>732994</v>
+        <v>727555</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631">
-        <v>733709</v>
+        <v>728710</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632">
-        <v>734594</v>
+        <v>729850</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633">
-        <v>735046</v>
+        <v>730620</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634">
-        <v>735664</v>
+        <v>730739</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635">
-        <v>737312</v>
+        <v>731725</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636">
-        <v>737640</v>
+        <v>732994</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637">
-        <v>738051</v>
+        <v>733709</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638">
-        <v>741414</v>
+        <v>734594</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639">
-        <v>741421</v>
+        <v>735046</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>741430</v>
+        <v>735240</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>742574</v>
+        <v>735664</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642">
-        <v>742581</v>
+        <v>737312</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643">
-        <v>743604</v>
+        <v>738051</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644">
-        <v>743762</v>
+        <v>741414</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645">
-        <v>744195</v>
+        <v>741421</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646">
-        <v>745510</v>
+        <v>741430</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647">
-        <v>746527</v>
+        <v>742574</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648">
-        <v>747709</v>
+        <v>742581</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649">
-        <v>747982</v>
+        <v>743604</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650">
-        <v>756394</v>
+        <v>743762</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651">
-        <v>756999</v>
+        <v>744195</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>758759</v>
+        <v>745510</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>760756</v>
+        <v>746527</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>763250</v>
+        <v>747709</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>765034</v>
+        <v>747982</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>766292</v>
+        <v>748519</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>766450</v>
+        <v>756394</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>766572</v>
+        <v>756999</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>767388</v>
+        <v>758759</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>769229</v>
+        <v>760756</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>770123</v>
+        <v>763250</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>770132</v>
+        <v>765034</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>770837</v>
+        <v>766292</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>772304</v>
+        <v>766450</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>773333</v>
+        <v>766572</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>773379</v>
+        <v>766942</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>773883</v>
+        <v>767388</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>774540</v>
+        <v>769229</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>774917</v>
+        <v>769474</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>775024</v>
+        <v>770123</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>776301</v>
+        <v>770132</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>776603</v>
+        <v>770837</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>778547</v>
+        <v>772304</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>779704</v>
+        <v>773333</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>781538</v>
+        <v>773379</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>785358</v>
+        <v>773883</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>785366</v>
+        <v>774540</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>785553</v>
+        <v>774917</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>785592</v>
+        <v>775024</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>790045</v>
+        <v>776301</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>790235</v>
+        <v>776603</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>791672</v>
+        <v>778547</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>792283</v>
+        <v>779704</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>798233</v>
+        <v>781538</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>816669</v>
+        <v>783712</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>817147</v>
+        <v>785358</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687">
-        <v>850822</v>
+        <v>785366</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688">
-        <v>850849</v>
+        <v>785553</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689">
-        <v>852611</v>
+        <v>790045</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690">
-        <v>853281</v>
+        <v>790235</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>854249</v>
+        <v>791672</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>861807</v>
+        <v>792283</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>862437</v>
+        <v>798233</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694">
-        <v>862594</v>
+        <v>816669</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695">
-        <v>863545</v>
+        <v>817147</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696">
-        <v>864774</v>
+        <v>850822</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697">
-        <v>865475</v>
+        <v>850849</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>867599</v>
+        <v>852611</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699">
-        <v>868914</v>
+        <v>853281</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700">
-        <v>871051</v>
+        <v>854249</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701">
-        <v>872003</v>
+        <v>861807</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702">
-        <v>872017</v>
+        <v>862091</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703">
-        <v>872799</v>
+        <v>862437</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704">
-        <v>873207</v>
+        <v>862594</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705">
-        <v>873359</v>
+        <v>863545</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>873360</v>
+        <v>864774</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707">
-        <v>873681</v>
+        <v>865475</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708">
-        <v>874816</v>
+        <v>867599</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709">
-        <v>877164</v>
+        <v>869201</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710">
-        <v>877972</v>
+        <v>869261</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711">
-        <v>878196</v>
+        <v>872003</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712">
-        <v>879270</v>
+        <v>872017</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713">
-        <v>879857</v>
+        <v>872799</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714">
-        <v>880085</v>
+        <v>873207</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>884531</v>
+        <v>873359</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>885400</v>
+        <v>873360</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>885433</v>
+        <v>873681</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718">
-        <v>885689</v>
+        <v>874816</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719">
-        <v>892481</v>
+        <v>875817</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720">
-        <v>900539</v>
+        <v>877164</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721">
-        <v>905188</v>
+        <v>877972</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722">
-        <v>907023</v>
+        <v>878196</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723">
-        <v>907500</v>
+        <v>879270</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724">
-        <v>909829</v>
+        <v>879857</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725">
-        <v>915294</v>
+        <v>880085</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726">
-        <v>915754</v>
+        <v>884531</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727">
-        <v>916251</v>
+        <v>885400</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728">
-        <v>917258</v>
+        <v>885433</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729">
-        <v>919598</v>
+        <v>885689</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730">
-        <v>921057</v>
+        <v>892481</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731">
-        <v>926600</v>
+        <v>900867</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732">
-        <v>930255</v>
+        <v>901081</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733">
-        <v>930510</v>
+        <v>905188</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734">
-        <v>931866</v>
+        <v>907023</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>932758</v>
+        <v>907500</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736">
-        <v>934841</v>
+        <v>909829</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>935720</v>
+        <v>915294</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738">
-        <v>935814</v>
+        <v>915754</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739">
-        <v>937264</v>
+        <v>916251</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740">
-        <v>939760</v>
+        <v>917258</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>941452</v>
+        <v>919598</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742">
-        <v>941873</v>
+        <v>921057</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743">
-        <v>943844</v>
+        <v>926600</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744">
-        <v>944367</v>
+        <v>930255</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745">
-        <v>946103</v>
+        <v>930510</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746">
-        <v>946296</v>
+        <v>931866</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>947053</v>
+        <v>932758</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748">
-        <v>948093</v>
+        <v>934841</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749">
-        <v>948940</v>
+        <v>935720</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>949477</v>
+        <v>935814</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751">
-        <v>949549</v>
+        <v>937264</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752">
-        <v>950333</v>
+        <v>939760</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>950811</v>
+        <v>941452</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754">
-        <v>951661</v>
+        <v>941873</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755">
-        <v>951815</v>
+        <v>943599</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756">
-        <v>952620</v>
+        <v>943844</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757">
-        <v>953115</v>
+        <v>944367</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>953459</v>
+        <v>946103</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759">
-        <v>953883</v>
+        <v>946296</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760">
-        <v>954046</v>
+        <v>947053</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761">
-        <v>956408</v>
+        <v>948093</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>956505</v>
+        <v>948940</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>957088</v>
+        <v>949477</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>957156</v>
+        <v>949549</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>957212</v>
+        <v>950333</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>957479</v>
+        <v>950811</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>957549</v>
+        <v>951661</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>957578</v>
+        <v>951815</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>957602</v>
+        <v>953115</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>957624</v>
+        <v>953459</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>957639</v>
+        <v>953883</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>957812</v>
+        <v>954046</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>957895</v>
+        <v>956505</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>957931</v>
+        <v>957088</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>957937</v>
+        <v>957156</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>957944</v>
+        <v>957212</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>957947</v>
+        <v>957479</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>957950</v>
+        <v>957549</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>958064</v>
+        <v>957578</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>958173</v>
+        <v>957602</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>958185</v>
+        <v>957624</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>958220</v>
+        <v>957639</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>958240</v>
+        <v>957812</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>958281</v>
+        <v>957895</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>958351</v>
+        <v>957931</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>958364</v>
+        <v>957937</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>958370</v>
+        <v>957944</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>958599</v>
+        <v>957947</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>958952</v>
+        <v>957950</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>958993</v>
+        <v>958064</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>959135</v>
+        <v>958173</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>959239</v>
+        <v>958185</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>959328</v>
+        <v>958220</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>959493</v>
+        <v>958240</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>959594</v>
+        <v>958281</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>959669</v>
+        <v>958310</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>959838</v>
+        <v>958351</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>959849</v>
+        <v>958364</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>959930</v>
+        <v>958370</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>959962</v>
+        <v>958599</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>960208</v>
+        <v>958952</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>960317</v>
+        <v>958993</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>960330</v>
+        <v>959135</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>960567</v>
+        <v>959239</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>960589</v>
+        <v>959328</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>960638</v>
+        <v>959493</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>960658</v>
+        <v>959594</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>960719</v>
+        <v>959669</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>960748</v>
+        <v>959838</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>961395</v>
+        <v>959849</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>961412</v>
+        <v>959930</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>961973</v>
+        <v>959962</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>962047</v>
+        <v>960208</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>962069</v>
+        <v>960317</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>962090</v>
+        <v>960330</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>962093</v>
+        <v>960567</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>962106</v>
+        <v>960589</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>962140</v>
+        <v>960638</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>962145</v>
+        <v>960658</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>962148</v>
+        <v>960719</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>962361</v>
+        <v>960748</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>962365</v>
+        <v>961395</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>962429</v>
+        <v>961412</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>962474</v>
+        <v>961973</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>962498</v>
+        <v>962047</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>962772</v>
+        <v>962069</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>962788</v>
+        <v>962090</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>962796</v>
+        <v>962093</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>962853</v>
+        <v>962106</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>963081</v>
+        <v>962140</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831">
-        <v>963128</v>
+        <v>962145</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832">
-        <v>963144</v>
+        <v>962148</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833">
-        <v>963176</v>
+        <v>962361</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834">
-        <v>963838</v>
+        <v>962365</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835">
-        <v>963867</v>
+        <v>962429</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836">
-        <v>963925</v>
+        <v>962474</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>964249</v>
+        <v>962498</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838">
-        <v>964288</v>
+        <v>962772</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839">
-        <v>964291</v>
+        <v>962788</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840">
-        <v>964330</v>
+        <v>962796</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841">
-        <v>964360</v>
+        <v>962853</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>964500</v>
+        <v>963081</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843">
-        <v>964566</v>
+        <v>963128</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844">
-        <v>964580</v>
+        <v>963144</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845">
-        <v>964592</v>
+        <v>963176</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846">
-        <v>964624</v>
+        <v>963838</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847">
-        <v>964770</v>
+        <v>963867</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848">
-        <v>964878</v>
+        <v>963925</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849">
-        <v>964941</v>
+        <v>964249</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850">
-        <v>964968</v>
+        <v>964288</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851">
-        <v>965063</v>
+        <v>964291</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852">
-        <v>965168</v>
+        <v>964330</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853">
-        <v>965280</v>
+        <v>964360</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854">
-        <v>965465</v>
+        <v>964500</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855">
-        <v>965683</v>
+        <v>964566</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856">
-        <v>966429</v>
+        <v>964580</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857">
-        <v>966807</v>
+        <v>964592</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858">
-        <v>967058</v>
+        <v>964624</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859">
-        <v>967164</v>
+        <v>964770</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860">
-        <v>967200</v>
+        <v>964878</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861">
-        <v>967272</v>
+        <v>964941</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862">
-        <v>967528</v>
+        <v>964968</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863">
-        <v>967721</v>
+        <v>965063</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864">
-        <v>967937</v>
+        <v>965168</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865">
-        <v>970672</v>
+        <v>965280</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866">
-        <v>971267</v>
+        <v>965465</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867">
-        <v>971897</v>
+        <v>965683</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868">
-        <v>972337</v>
+        <v>966429</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869">
-        <v>972550</v>
+        <v>966807</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870">
-        <v>972605</v>
+        <v>967058</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871">
-        <v>973592</v>
+        <v>967164</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872">
-        <v>973670</v>
+        <v>967200</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873">
-        <v>973849</v>
+        <v>967272</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874">
-        <v>974254</v>
+        <v>967528</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875">
-        <v>974596</v>
+        <v>967721</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876">
-        <v>975940</v>
+        <v>967937</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877">
-        <v>976303</v>
+        <v>970672</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878">
+        <v>971267</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1">
+      <c r="A879">
+        <v>971897</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880">
+        <v>972337</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881">
+        <v>972550</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882">
+        <v>972605</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1">
+      <c r="A883">
+        <v>973088</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884">
+        <v>973592</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885">
+        <v>973670</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1">
+      <c r="A886">
+        <v>973849</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887">
+        <v>974254</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1">
+      <c r="A888">
+        <v>974596</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1">
+      <c r="A889">
+        <v>975940</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1">
+      <c r="A890">
+        <v>976303</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1">
+      <c r="A891">
+        <v>976345</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1">
+      <c r="A892">
         <v>976719</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1">
+      <c r="A893">
+        <v>977278</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894">
+        <v>977657</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1">
+      <c r="A895">
+        <v>977781</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1">
+      <c r="A896">
+        <v>977989</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1">
+      <c r="A897">
+        <v>979898</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1">
+      <c r="A898">
+        <v>984973</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1">
+      <c r="A899">
+        <v>985090</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1">
+      <c r="A900">
+        <v>985340</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901">
+        <v>985911</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1">
+      <c r="A902">
+        <v>992668</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1">
+      <c r="A903">
+        <v>992804</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1">
+      <c r="A904">
+        <v>994660</v>
       </c>
     </row>
   </sheetData>
